--- a/Lab4/Lab 4 SAWA tables.xlsx
+++ b/Lab4/Lab 4 SAWA tables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159F6A99-E048-4BA3-B9BE-8B64080C5F1E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB01F885-49E5-4262-858E-C6DD93CA4666}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,11 +208,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="181" formatCode="0.0"/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
-    <numFmt numFmtId="185" formatCode="0.00000000000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000000000000_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,12 +232,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -392,10 +386,7 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,24 +394,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3682,10 +3676,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4008,7 +3998,7 @@
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>42</v>
       </c>
       <c r="E3" s="8">
@@ -4017,7 +4007,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="6"/>
       <c r="H3" s="5">
-        <f>MEDIAN(E3:G3)</f>
+        <f t="shared" ref="H3:H12" si="0">MEDIAN(E3:G3)</f>
         <v>39</v>
       </c>
     </row>
@@ -4028,7 +4018,7 @@
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>34</v>
       </c>
       <c r="E4" s="8">
@@ -4037,7 +4027,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="6"/>
       <c r="H4" s="5">
-        <f>MEDIAN(E4:G4)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
@@ -4048,7 +4038,7 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>17</v>
       </c>
       <c r="E5" s="8">
@@ -4057,7 +4047,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="6"/>
       <c r="H5" s="5">
-        <f>MEDIAN(E5:G5)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -4068,7 +4058,7 @@
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>88</v>
       </c>
       <c r="E6" s="8">
@@ -4077,7 +4067,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="6"/>
       <c r="H6" s="5">
-        <f>MEDIAN(E6:G6)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
@@ -4088,7 +4078,7 @@
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>120</v>
       </c>
       <c r="E7" s="8">
@@ -4097,7 +4087,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
       <c r="H7" s="5">
-        <f>MEDIAN(E7:G7)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
     </row>
@@ -4108,7 +4098,7 @@
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>130</v>
       </c>
       <c r="E8" s="8">
@@ -4117,7 +4107,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
       <c r="H8" s="5">
-        <f>MEDIAN(E8:G8)</f>
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
     </row>
@@ -4128,7 +4118,7 @@
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>4</v>
       </c>
       <c r="E9" s="8">
@@ -4137,7 +4127,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
       <c r="H9" s="5">
-        <f>MEDIAN(E9:G9)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -4148,7 +4138,7 @@
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>23</v>
       </c>
       <c r="E10" s="8">
@@ -4157,7 +4147,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
       <c r="H10" s="5">
-        <f>MEDIAN(E10:G10)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
@@ -4168,7 +4158,7 @@
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>89</v>
       </c>
       <c r="E11" s="8">
@@ -4177,7 +4167,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5">
-        <f>MEDIAN(E11:G11)</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
@@ -4188,7 +4178,7 @@
       <c r="C12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>170</v>
       </c>
       <c r="E12" s="8">
@@ -4197,7 +4187,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5">
-        <f>MEDIAN(E12:G12)</f>
+        <f t="shared" si="0"/>
         <v>186</v>
       </c>
     </row>
@@ -4225,7 +4215,7 @@
   <dimension ref="B2:R34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5"/>
@@ -4252,29 +4242,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -4294,19 +4284,19 @@
       <c r="D4" s="12">
         <v>60</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <f>$L$4+$N$4*D4</f>
         <v>67.686177320603377</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <f>'Table 4.1'!H3</f>
         <v>39</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <f>F4-E4</f>
         <v>-28.686177320603377</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="21">
         <f>G4^2</f>
         <v>822.89676926909954</v>
       </c>
@@ -4316,13 +4306,13 @@
       <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <v>1.1191835480246908</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="17">
         <v>1.1094498962096446</v>
       </c>
       <c r="O4" s="14" t="s">
@@ -4339,20 +4329,20 @@
       <c r="D5" s="12">
         <v>40</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <f t="shared" ref="E5:E13" si="0">$L$4+$N$4*D5</f>
         <v>45.49717939641048</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <f>'Table 4.1'!H4</f>
         <v>27</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <f t="shared" ref="G5:G13" si="1">F5-E5</f>
         <v>-18.49717939641048</v>
       </c>
-      <c r="H5" s="23">
-        <f t="shared" ref="H5:H14" si="2">G5^2</f>
+      <c r="H5" s="21">
+        <f t="shared" ref="H5:H13" si="2">G5^2</f>
         <v>342.14564562299239</v>
       </c>
     </row>
@@ -4366,19 +4356,19 @@
       <c r="D6" s="12">
         <v>10</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <f t="shared" si="0"/>
         <v>12.213682510121137</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <f>'Table 4.1'!H5</f>
         <v>16</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <f t="shared" si="1"/>
         <v>3.7863174898788632</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="21">
         <f t="shared" si="2"/>
         <v>14.336200134162576</v>
       </c>
@@ -4393,19 +4383,19 @@
       <c r="D7" s="12">
         <v>50</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <f t="shared" si="0"/>
         <v>56.591678358506925</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <f>'Table 4.1'!H6</f>
         <v>83</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <f t="shared" si="1"/>
         <v>26.408321641493075</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="21">
         <f t="shared" si="2"/>
         <v>697.39945192055143</v>
       </c>
@@ -4420,19 +4410,19 @@
       <c r="D8" s="12">
         <v>100</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <f t="shared" si="0"/>
         <v>112.06417316898916</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <f>'Table 4.1'!H7</f>
         <v>130</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <f t="shared" si="1"/>
         <v>17.935826831010843</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="21">
         <f t="shared" si="2"/>
         <v>321.69388411200845</v>
       </c>
@@ -4447,19 +4437,19 @@
       <c r="D9" s="12">
         <v>230</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
         <v>256.29265967624292</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <f>'Table 4.1'!H8</f>
         <v>255</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <f t="shared" si="1"/>
         <v>-1.2926596762429199</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="21">
         <f t="shared" si="2"/>
         <v>1.6709690385844505</v>
       </c>
@@ -4474,19 +4464,19 @@
       <c r="D10" s="12">
         <v>4</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <f t="shared" si="0"/>
         <v>5.5569831328632695</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <f>'Table 4.1'!H9</f>
         <v>8</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <f t="shared" si="1"/>
         <v>2.4430168671367305</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="21">
         <f t="shared" si="2"/>
         <v>5.9683314131145657</v>
       </c>
@@ -4501,19 +4491,19 @@
       <c r="D11" s="12">
         <v>40</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <f t="shared" si="0"/>
         <v>45.49717939641048</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <f>'Table 4.1'!H10</f>
         <v>43</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <f t="shared" si="1"/>
         <v>-2.4971793964104805</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="21">
         <f t="shared" si="2"/>
         <v>6.2359049378570113</v>
       </c>
@@ -4528,19 +4518,19 @@
       <c r="D12" s="12">
         <v>80</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <f t="shared" si="0"/>
         <v>89.875175244796267</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <f>'Table 4.1'!H11</f>
         <v>94</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <f t="shared" si="1"/>
         <v>4.1248247552037327</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="21">
         <f t="shared" si="2"/>
         <v>17.014179261141532</v>
       </c>
@@ -4555,19 +4545,19 @@
       <c r="D13" s="12">
         <v>170</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <f t="shared" si="0"/>
         <v>189.72566590366429</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <f>'Table 4.1'!H12</f>
         <v>186</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <f t="shared" si="1"/>
         <v>-3.725665903664293</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="21">
         <f t="shared" si="2"/>
         <v>13.880586425726673</v>
       </c>
@@ -4576,17 +4566,17 @@
       <c r="B14" s="4">
         <v>11</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="20"/>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="25">
         <f>SUM(H4:H13)</f>
         <v>2243.2419221352384</v>
       </c>
@@ -4595,23 +4585,23 @@
       <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="20" t="str">
+      <c r="G17" s="26" t="str">
         <f>K4&amp;ROUND(L4,2)&amp;M4&amp;ROUND(N4,2)&amp;O4</f>
         <v>Predict_Distance =1.12+1.11*Gussed_Distance</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="4" t="s">
@@ -4646,19 +4636,19 @@
       <c r="D21" s="12">
         <v>60</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <f>$L$21+$N$21*D21+$Q$21*D21^2</f>
         <v>68.298000753520313</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <f>'Table 4.1'!H3</f>
         <v>39</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="18">
         <f>F21-E21</f>
         <v>-29.298000753520313</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="21">
         <f>G21^2</f>
         <v>858.37284815327678</v>
       </c>
@@ -4668,13 +4658,13 @@
       <c r="K21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="17">
         <v>-0.40504646260770483</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="17">
         <v>1.1575998607385336</v>
       </c>
       <c r="O21" s="14" t="s">
@@ -4683,7 +4673,7 @@
       <c r="P21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21" s="17">
         <v>-2.0915123005111353E-4</v>
       </c>
       <c r="R21" s="14" t="s">
@@ -4700,19 +4690,19 @@
       <c r="D22" s="12">
         <v>40</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <f t="shared" ref="E22:E30" si="3">$L$21+$N$21*D22+$Q$21*D22^2</f>
         <v>45.564305998851857</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <f>'Table 4.1'!H4</f>
         <v>27</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="18">
         <f t="shared" ref="G22:G30" si="4">F22-E22</f>
         <v>-18.564305998851857</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="21">
         <f t="shared" ref="H22:H30" si="5">G22^2</f>
         <v>344.63345721900703</v>
       </c>
@@ -4727,19 +4717,19 @@
       <c r="D23" s="12">
         <v>10</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <f t="shared" si="3"/>
         <v>11.150037021772521</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <f>'Table 4.1'!H5</f>
         <v>16</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="18">
         <f t="shared" si="4"/>
         <v>4.8499629782274791</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="21">
         <f t="shared" si="5"/>
         <v>23.522140890177159</v>
       </c>
@@ -4754,19 +4744,19 @@
       <c r="D24" s="12">
         <v>50</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <f t="shared" si="3"/>
         <v>56.952068499191185</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <f>'Table 4.1'!H6</f>
         <v>83</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="18">
         <f t="shared" si="4"/>
         <v>26.047931500808815</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="21">
         <f t="shared" si="5"/>
         <v>678.49473547082812</v>
       </c>
@@ -4781,19 +4771,19 @@
       <c r="D25" s="12">
         <v>100</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <f t="shared" si="3"/>
         <v>113.26342731073451</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <f>'Table 4.1'!H7</f>
         <v>130</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="18">
         <f t="shared" si="4"/>
         <v>16.736572689265486</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="21">
         <f t="shared" si="5"/>
         <v>280.11286538306734</v>
       </c>
@@ -4808,19 +4798,19 @@
       <c r="D26" s="12">
         <v>230</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <f t="shared" si="3"/>
         <v>254.77882143755113</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <f>'Table 4.1'!H8</f>
         <v>255</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="18">
         <f t="shared" si="4"/>
         <v>0.2211785624488698</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="21">
         <f t="shared" si="5"/>
         <v>4.89199564869486E-2</v>
       </c>
@@ -4835,19 +4825,19 @@
       <c r="D27" s="12">
         <v>4</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <f t="shared" si="3"/>
         <v>4.2220065606656121</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <f>'Table 4.1'!H9</f>
         <v>8</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="18">
         <f t="shared" si="4"/>
         <v>3.7779934393343879</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="21">
         <f t="shared" si="5"/>
         <v>14.273234427653678</v>
       </c>
@@ -4862,19 +4852,19 @@
       <c r="D28" s="12">
         <v>40</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <f t="shared" si="3"/>
         <v>45.564305998851857</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <f>'Table 4.1'!H10</f>
         <v>43</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="18">
         <f t="shared" si="4"/>
         <v>-2.5643059988518573</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="21">
         <f t="shared" si="5"/>
         <v>6.5756652557476212</v>
       </c>
@@ -4889,19 +4879,19 @@
       <c r="D29" s="12">
         <v>80</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <f t="shared" si="3"/>
         <v>90.864374524147863</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="18">
         <f>'Table 4.1'!H11</f>
         <v>94</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="18">
         <f t="shared" si="4"/>
         <v>3.1356254758521374</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="21">
         <f t="shared" si="5"/>
         <v>9.8321471248129431</v>
       </c>
@@ -4916,38 +4906,38 @@
       <c r="D30" s="12">
         <v>170</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <f t="shared" si="3"/>
         <v>190.3424593144658</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <f>'Table 4.1'!H12</f>
         <v>186</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="18">
         <f t="shared" si="4"/>
         <v>-4.342459314465799</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="21">
         <f t="shared" si="5"/>
         <v>18.856952897790777</v>
       </c>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="21">
+      <c r="B31" s="19">
         <v>11</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="22"/>
+      <c r="D31" s="20"/>
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="25">
         <f>SUM(H21:H30)</f>
         <v>2234.7229667788479</v>
       </c>
@@ -4956,13 +4946,13 @@
       <c r="F34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="20" t="str">
+      <c r="G34" s="26" t="str">
         <f>K21&amp;ROUND(L21,2)&amp;M21&amp;ROUND(N21,2)&amp;O21&amp;P21&amp;ROUND(Q21,2)&amp;R21</f>
         <v>Predict_Distance =-0.41+1.16*Gussed_Distance+0*Gussed_Distance^2</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Lab4/Lab 4 SAWA tables.xlsx
+++ b/Lab4/Lab 4 SAWA tables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB01F885-49E5-4262-858E-C6DD93CA4666}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D562FF-4118-4C38-AEAA-81EC769BBC0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={71C5344D-5AB8-49AC-B894-C5431D7AB1AF}</author>
+    <author>tc={BA90CDF7-B459-44A2-B663-D96DA5126340}</author>
     <author>tc={D5F3283D-BDD3-4E3C-A69D-DAA652040039}</author>
+    <author>tc={4E75B693-F4BC-4497-AA85-BCBB7BA3BE11}</author>
   </authors>
   <commentList>
     <comment ref="H15" authorId="0" shapeId="0" xr:uid="{71C5344D-5AB8-49AC-B894-C5431D7AB1AF}">
@@ -73,7 +75,15 @@
     Use Solver to minize this value by changing cell L4 and N4</t>
       </text>
     </comment>
-    <comment ref="H32" authorId="1" shapeId="0" xr:uid="{D5F3283D-BDD3-4E3C-A69D-DAA652040039}">
+    <comment ref="H16" authorId="1" shapeId="0" xr:uid="{BA90CDF7-B459-44A2-B663-D96DA5126340}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Here we lost two degree of freedom, as we have one variable x and intercept. Reference: https://en.wikipedia.org/wiki/Degrees_of_freedom_(statistics)#Of_residuals</t>
+      </text>
+    </comment>
+    <comment ref="H32" authorId="2" shapeId="0" xr:uid="{D5F3283D-BDD3-4E3C-A69D-DAA652040039}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -82,12 +92,20 @@
 21</t>
       </text>
     </comment>
+    <comment ref="H33" authorId="3" shapeId="0" xr:uid="{4E75B693-F4BC-4497-AA85-BCBB7BA3BE11}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Here we lost three degree of freedom, as we have two variables and one intercept. Reference: https://en.wikipedia.org/wiki/Degrees_of_freedom_(statistics)#Of_residuals</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="34">
   <si>
     <t>Leftmost urn.</t>
   </si>
@@ -202,6 +220,40 @@
     <t>Final formula:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Load the Solver Add-in in Excel:
+https://support.office.com/en-us/article/load-the-solver-add-in-in-excel-612926fc-d53b-46b4-872c-e24772f078ca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Standard devation:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="DengXian"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Solver can only find local minimum, check Rcode to see the correct answer</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -212,7 +264,7 @@
     <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.00000000000000_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +291,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="DengXian"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +351,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -415,12 +492,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1002,34 +1156,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>68.298000753520313</c:v>
+                  <c:v>68.29808058991938</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.564305998851857</c:v>
+                  <c:v>45.564359182489987</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.150037021772521</c:v>
+                  <c:v>11.150050303433964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.952068499191185</c:v>
+                  <c:v>56.952135004065489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113.26342731073451</c:v>
+                  <c:v>113.26356057611909</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>254.77882143755113</c:v>
+                  <c:v>254.77912948403227</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2220065606656121</c:v>
+                  <c:v>4.2220118730434395</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.564305998851857</c:v>
+                  <c:v>45.564359182489987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.864374524147863</c:v>
+                  <c:v>90.864481054462416</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>190.3424593144658</c:v>
+                  <c:v>190.34268647668728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3684,7 +3838,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3942,9 +4096,15 @@
   <threadedComment ref="H15" dT="2019-09-17T05:24:17.12" personId="{00000000-0000-0000-0000-000000000000}" id="{71C5344D-5AB8-49AC-B894-C5431D7AB1AF}">
     <text>Use Solver to minize this value by changing cell L4 and N4</text>
   </threadedComment>
+  <threadedComment ref="H16" dT="2019-09-18T03:29:59.35" personId="{00000000-0000-0000-0000-000000000000}" id="{BA90CDF7-B459-44A2-B663-D96DA5126340}">
+    <text>Here we lost two degree of freedom, as we have one variable x and intercept. Reference: https://en.wikipedia.org/wiki/Degrees_of_freedom_(statistics)#Of_residuals</text>
+  </threadedComment>
   <threadedComment ref="H32" dT="2019-09-17T05:24:17.12" personId="{00000000-0000-0000-0000-000000000000}" id="{D5F3283D-BDD3-4E3C-A69D-DAA652040039}">
     <text>Use Solver to minize this value by changing cell L21, N21 and Q
 21</text>
+  </threadedComment>
+  <threadedComment ref="H33" dT="2019-09-18T03:29:09.38" personId="{00000000-0000-0000-0000-000000000000}" id="{4E75B693-F4BC-4497-AA85-BCBB7BA3BE11}">
+    <text>Here we lost three degree of freedom, as we have two variables and one intercept. Reference: https://en.wikipedia.org/wiki/Degrees_of_freedom_(statistics)#Of_residuals</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -3954,7 +4114,7 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4215,7 +4375,7 @@
   <dimension ref="B2:R34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5"/>
@@ -4581,7 +4741,22 @@
         <v>2243.2419221352384</v>
       </c>
     </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="G16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="25">
+        <f>SQRT(H15/(10-2))</f>
+        <v>16.74530502161441</v>
+      </c>
+    </row>
     <row r="17" spans="2:18">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
       <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
@@ -4592,6 +4767,10 @@
       <c r="H17" s="26"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="2:18">
       <c r="C19" s="27" t="s">
@@ -4638,7 +4817,7 @@
       </c>
       <c r="E21" s="18">
         <f>$L$21+$N$21*D21+$Q$21*D21^2</f>
-        <v>68.298000753520313</v>
+        <v>68.29808058991938</v>
       </c>
       <c r="F21" s="18">
         <f>'Table 4.1'!H3</f>
@@ -4646,11 +4825,11 @@
       </c>
       <c r="G21" s="18">
         <f>F21-E21</f>
-        <v>-29.298000753520313</v>
+        <v>-29.29808058991938</v>
       </c>
       <c r="H21" s="21">
         <f>G21^2</f>
-        <v>858.37284815327678</v>
+        <v>858.37752625341068</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -4659,13 +4838,13 @@
         <v>27</v>
       </c>
       <c r="L21" s="17">
-        <v>-0.40504646260770483</v>
+        <v>-0.40504646102789421</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N21" s="17">
-        <v>1.1575998607385336</v>
+        <v>1.1576011882322654</v>
       </c>
       <c r="O21" s="14" t="s">
         <v>19</v>
@@ -4674,7 +4853,7 @@
         <v>18</v>
       </c>
       <c r="Q21" s="17">
-        <v>-2.0915123005111353E-4</v>
+        <v>-2.0915117860795626E-4</v>
       </c>
       <c r="R21" s="14" t="s">
         <v>28</v>
@@ -4692,7 +4871,7 @@
       </c>
       <c r="E22" s="18">
         <f t="shared" ref="E22:E30" si="3">$L$21+$N$21*D22+$Q$21*D22^2</f>
-        <v>45.564305998851857</v>
+        <v>45.564359182489987</v>
       </c>
       <c r="F22" s="18">
         <f>'Table 4.1'!H4</f>
@@ -4700,11 +4879,11 @@
       </c>
       <c r="G22" s="18">
         <f t="shared" ref="G22:G30" si="4">F22-E22</f>
-        <v>-18.564305998851857</v>
+        <v>-18.564359182489987</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" ref="H22:H30" si="5">G22^2</f>
-        <v>344.63345721900703</v>
+        <v>344.6354318565003</v>
       </c>
     </row>
     <row r="23" spans="2:18">
@@ -4719,7 +4898,7 @@
       </c>
       <c r="E23" s="18">
         <f t="shared" si="3"/>
-        <v>11.150037021772521</v>
+        <v>11.150050303433964</v>
       </c>
       <c r="F23" s="18">
         <f>'Table 4.1'!H5</f>
@@ -4727,11 +4906,11 @@
       </c>
       <c r="G23" s="18">
         <f t="shared" si="4"/>
-        <v>4.8499629782274791</v>
+        <v>4.8499496965660356</v>
       </c>
       <c r="H23" s="21">
         <f t="shared" si="5"/>
-        <v>23.522140890177159</v>
+        <v>23.52201205922098</v>
       </c>
     </row>
     <row r="24" spans="2:18">
@@ -4746,7 +4925,7 @@
       </c>
       <c r="E24" s="18">
         <f t="shared" si="3"/>
-        <v>56.952068499191185</v>
+        <v>56.952135004065489</v>
       </c>
       <c r="F24" s="18">
         <f>'Table 4.1'!H6</f>
@@ -4754,11 +4933,11 @@
       </c>
       <c r="G24" s="18">
         <f t="shared" si="4"/>
-        <v>26.047931500808815</v>
+        <v>26.047864995934511</v>
       </c>
       <c r="H24" s="21">
         <f t="shared" si="5"/>
-        <v>678.49473547082812</v>
+        <v>678.49127084643033</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -4773,7 +4952,7 @@
       </c>
       <c r="E25" s="18">
         <f t="shared" si="3"/>
-        <v>113.26342731073451</v>
+        <v>113.26356057611909</v>
       </c>
       <c r="F25" s="18">
         <f>'Table 4.1'!H7</f>
@@ -4781,11 +4960,11 @@
       </c>
       <c r="G25" s="18">
         <f t="shared" si="4"/>
-        <v>16.736572689265486</v>
+        <v>16.73643942388091</v>
       </c>
       <c r="H25" s="21">
         <f t="shared" si="5"/>
-        <v>280.11286538306734</v>
+        <v>280.10840458923514</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -4800,7 +4979,7 @@
       </c>
       <c r="E26" s="18">
         <f t="shared" si="3"/>
-        <v>254.77882143755113</v>
+        <v>254.77912948403227</v>
       </c>
       <c r="F26" s="18">
         <f>'Table 4.1'!H8</f>
@@ -4808,11 +4987,11 @@
       </c>
       <c r="G26" s="18">
         <f t="shared" si="4"/>
-        <v>0.2211785624488698</v>
+        <v>0.22087051596773222</v>
       </c>
       <c r="H26" s="21">
         <f t="shared" si="5"/>
-        <v>4.89199564869486E-2</v>
+        <v>4.8783784823852254E-2</v>
       </c>
     </row>
     <row r="27" spans="2:18">
@@ -4827,7 +5006,7 @@
       </c>
       <c r="E27" s="18">
         <f t="shared" si="3"/>
-        <v>4.2220065606656121</v>
+        <v>4.2220118730434395</v>
       </c>
       <c r="F27" s="18">
         <f>'Table 4.1'!H9</f>
@@ -4835,11 +5014,11 @@
       </c>
       <c r="G27" s="18">
         <f t="shared" si="4"/>
-        <v>3.7779934393343879</v>
+        <v>3.7779881269565605</v>
       </c>
       <c r="H27" s="21">
         <f t="shared" si="5"/>
-        <v>14.273234427653678</v>
+        <v>14.27319428742474</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -4854,7 +5033,7 @@
       </c>
       <c r="E28" s="18">
         <f t="shared" si="3"/>
-        <v>45.564305998851857</v>
+        <v>45.564359182489987</v>
       </c>
       <c r="F28" s="18">
         <f>'Table 4.1'!H10</f>
@@ -4862,11 +5041,11 @@
       </c>
       <c r="G28" s="18">
         <f t="shared" si="4"/>
-        <v>-2.5643059988518573</v>
+        <v>-2.5643591824899872</v>
       </c>
       <c r="H28" s="21">
         <f t="shared" si="5"/>
-        <v>6.5756652557476212</v>
+        <v>6.5759380168207153</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -4881,7 +5060,7 @@
       </c>
       <c r="E29" s="18">
         <f t="shared" si="3"/>
-        <v>90.864374524147863</v>
+        <v>90.864481054462416</v>
       </c>
       <c r="F29" s="18">
         <f>'Table 4.1'!H11</f>
@@ -4889,11 +5068,11 @@
       </c>
       <c r="G29" s="18">
         <f t="shared" si="4"/>
-        <v>3.1356254758521374</v>
+        <v>3.1355189455375836</v>
       </c>
       <c r="H29" s="21">
         <f t="shared" si="5"/>
-        <v>9.8321471248129431</v>
+        <v>9.8314790578251205</v>
       </c>
     </row>
     <row r="30" spans="2:18">
@@ -4908,7 +5087,7 @@
       </c>
       <c r="E30" s="18">
         <f t="shared" si="3"/>
-        <v>190.3424593144658</v>
+        <v>190.34268647668728</v>
       </c>
       <c r="F30" s="18">
         <f>'Table 4.1'!H12</f>
@@ -4916,11 +5095,11 @@
       </c>
       <c r="G30" s="18">
         <f t="shared" si="4"/>
-        <v>-4.342459314465799</v>
+        <v>-4.3426864766872768</v>
       </c>
       <c r="H30" s="21">
         <f t="shared" si="5"/>
-        <v>18.856952897790777</v>
+        <v>18.858925834802555</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -4939,10 +5118,25 @@
       </c>
       <c r="H32" s="25">
         <f>SUM(H21:H30)</f>
-        <v>2234.7229667788479</v>
+        <v>2234.7229665864938</v>
       </c>
     </row>
-    <row r="34" spans="6:10">
+    <row r="33" spans="2:10">
+      <c r="B33" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="G33" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="25">
+        <f>SQRT(H32/(10-3))</f>
+        <v>17.867460314319572</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
       <c r="F34" s="2" t="s">
         <v>30</v>
       </c>
@@ -4955,11 +5149,13 @@
       <c r="J34" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="B33:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab4/Lab 4 SAWA tables.xlsx
+++ b/Lab4/Lab 4 SAWA tables.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D562FF-4118-4C38-AEAA-81EC769BBC0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="34620" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="Table 4.1" sheetId="2" r:id="rId1"/>
@@ -43,7 +42,7 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,45 +58,78 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>tc={71C5344D-5AB8-49AC-B894-C5431D7AB1AF}</author>
-    <author>tc={BA90CDF7-B459-44A2-B663-D96DA5126340}</author>
-    <author>tc={D5F3283D-BDD3-4E3C-A69D-DAA652040039}</author>
-    <author>tc={4E75B693-F4BC-4497-AA85-BCBB7BA3BE11}</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{71C5344D-5AB8-49AC-B894-C5431D7AB1AF}">
+    <comment ref="H15" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Use Solver to minize this value by changing cell L4 and N4</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="1" shapeId="0" xr:uid="{BA90CDF7-B459-44A2-B663-D96DA5126340}">
+    <comment ref="H16" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Here we lost two degree of freedom, as we have one variable x and intercept. Reference: https://en.wikipedia.org/wiki/Degrees_of_freedom_(statistics)#Of_residuals</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H32" authorId="2" shapeId="0" xr:uid="{D5F3283D-BDD3-4E3C-A69D-DAA652040039}">
+    <comment ref="H32" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Use Solver to minize this value by changing cell L21, N21 and Q
 21</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H33" authorId="3" shapeId="0" xr:uid="{4E75B693-F4BC-4497-AA85-BCBB7BA3BE11}">
+    <comment ref="H33" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Here we lost three degree of freedom, as we have two variables and one intercept. Reference: https://en.wikipedia.org/wiki/Degrees_of_freedom_(statistics)#Of_residuals</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -105,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>Leftmost urn.</t>
   </si>
@@ -258,23 +290,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00000000000000_ "/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0_ "/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000_ "/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -463,7 +495,7 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,18 +506,18 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,74 +539,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -702,10 +666,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>40.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>27.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -714,22 +678,22 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130</c:v>
+                  <c:v>137.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255</c:v>
+                  <c:v>260.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>7.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>44.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>186</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,6 +797,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -858,7 +823,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -896,7 +861,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1845016287"/>
@@ -964,6 +929,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -989,7 +955,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1027,7 +993,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1704755311"/>
@@ -1068,7 +1034,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1195,10 +1161,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>40.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>27.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -1207,22 +1173,22 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130</c:v>
+                  <c:v>137.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255</c:v>
+                  <c:v>260.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>7.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>44.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>186</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,6 +1292,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1351,7 +1318,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1389,7 +1356,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1845016287"/>
@@ -1457,6 +1424,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1482,7 +1450,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1520,7 +1488,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1704755311"/>
@@ -1561,7 +1529,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1686,10 +1654,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>40.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>27.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -1698,22 +1666,22 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130</c:v>
+                  <c:v>137.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255</c:v>
+                  <c:v>260.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>7.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>44.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>186</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1826,7 +1794,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1864,7 +1832,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="160160047"/>
@@ -1957,7 +1925,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1995,7 +1963,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2080999967"/>
@@ -2036,7 +2004,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3838,7 +3806,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4110,25 +4078,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F106FDCC-8F5E-4999-BFFD-E11F9D1A068B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="8" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="36.5" customHeight="1">
+    <row r="2" spans="2:8" ht="36.6" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
@@ -4151,7 +4119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="35.5" customHeight="1">
+    <row r="3" spans="2:8" ht="35.450000000000003" customHeight="1">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -4164,14 +4132,18 @@
       <c r="E3" s="8">
         <v>39</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="7">
+        <v>41</v>
+      </c>
+      <c r="G3" s="6">
+        <v>40.01</v>
+      </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H12" si="0">MEDIAN(E3:G3)</f>
-        <v>39</v>
+        <v>40.01</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.5">
+    <row r="4" spans="2:8" ht="15.75">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -4184,14 +4156,18 @@
       <c r="E4" s="8">
         <v>27</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="7">
+        <v>29</v>
+      </c>
+      <c r="G4" s="6">
+        <v>27.09</v>
+      </c>
       <c r="H4" s="5">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>27.09</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.5">
+    <row r="5" spans="2:8" ht="15.75">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -4204,14 +4180,18 @@
       <c r="E5" s="8">
         <v>16</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="7">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6">
+        <v>16.04</v>
+      </c>
       <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.5">
+    <row r="6" spans="2:8" ht="15.75">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -4224,14 +4204,18 @@
       <c r="E6" s="8">
         <v>83</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="7">
+        <v>83</v>
+      </c>
+      <c r="G6" s="6">
+        <v>82.05</v>
+      </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.5">
+    <row r="7" spans="2:8" ht="15.75">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -4244,14 +4228,18 @@
       <c r="E7" s="8">
         <v>130</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="7">
+        <v>138.4</v>
+      </c>
+      <c r="G7" s="6">
+        <v>137.06</v>
+      </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>137.06</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.5">
+    <row r="8" spans="2:8" ht="15.75">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -4264,14 +4252,18 @@
       <c r="E8" s="8">
         <v>255</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="7">
+        <v>277.5</v>
+      </c>
+      <c r="G8" s="6">
+        <v>260.02</v>
+      </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>260.02</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.5">
+    <row r="9" spans="2:8" ht="15.75">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -4284,14 +4276,18 @@
       <c r="E9" s="8">
         <v>8</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="7">
+        <v>7.08</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7.01</v>
+      </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7.08</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.5">
+    <row r="10" spans="2:8" ht="15.75">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -4304,14 +4300,18 @@
       <c r="E10" s="8">
         <v>43</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="7">
+        <v>44.2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>45</v>
+      </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44.2</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.5">
+    <row r="11" spans="2:8" ht="15.75">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -4324,14 +4324,18 @@
       <c r="E11" s="8">
         <v>94</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="7">
+        <v>105.6</v>
+      </c>
+      <c r="G11" s="6">
+        <v>103</v>
+      </c>
       <c r="H11" s="5">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.5">
+    <row r="12" spans="2:8" ht="15.75">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -4344,14 +4348,18 @@
       <c r="E12" s="8">
         <v>186</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="7">
+        <v>199.7</v>
+      </c>
+      <c r="G12" s="6">
+        <v>199</v>
+      </c>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.5">
+    <row r="13" spans="2:8" ht="15.75">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -4361,7 +4369,7 @@
       <c r="D13" s="3"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:8" ht="15.5">
+    <row r="14" spans="2:8" ht="15.75">
       <c r="F14" s="1"/>
     </row>
   </sheetData>
@@ -4371,34 +4379,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BAA538-7C33-484F-88A0-57211A01A9FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="1.9140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.4140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.4140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="3" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="2"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
     <col min="12" max="12" width="7" style="2" customWidth="1"/>
-    <col min="13" max="13" width="2.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.58203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.4140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="2"/>
-    <col min="18" max="18" width="17.4140625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="2"/>
+    <col min="13" max="13" width="2.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="17.42578125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
@@ -4450,15 +4458,15 @@
       </c>
       <c r="F4" s="18">
         <f>'Table 4.1'!H3</f>
-        <v>39</v>
+        <v>40.01</v>
       </c>
       <c r="G4" s="18">
         <f>F4-E4</f>
-        <v>-28.686177320603377</v>
+        <v>-27.676177320603379</v>
       </c>
       <c r="H4" s="21">
         <f>G4^2</f>
-        <v>822.89676926909954</v>
+        <v>765.97079108148091</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -4495,15 +4503,15 @@
       </c>
       <c r="F5" s="18">
         <f>'Table 4.1'!H4</f>
-        <v>27</v>
+        <v>27.09</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" ref="G5:G13" si="1">F5-E5</f>
-        <v>-18.49717939641048</v>
+        <v>-18.407179396410481</v>
       </c>
       <c r="H5" s="21">
         <f t="shared" ref="H5:H13" si="2">G5^2</f>
-        <v>342.14564562299239</v>
+        <v>338.82425333163849</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -4576,15 +4584,15 @@
       </c>
       <c r="F8" s="18">
         <f>'Table 4.1'!H7</f>
-        <v>130</v>
+        <v>137.06</v>
       </c>
       <c r="G8" s="18">
         <f t="shared" si="1"/>
-        <v>17.935826831010843</v>
+        <v>24.995826831010845</v>
       </c>
       <c r="H8" s="21">
         <f t="shared" si="2"/>
-        <v>321.69388411200845</v>
+        <v>624.79135896588161</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -4603,15 +4611,15 @@
       </c>
       <c r="F9" s="18">
         <f>'Table 4.1'!H8</f>
-        <v>255</v>
+        <v>260.02</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="1"/>
-        <v>-1.2926596762429199</v>
+        <v>3.7273403237570619</v>
       </c>
       <c r="H9" s="21">
         <f t="shared" si="2"/>
-        <v>1.6709690385844505</v>
+        <v>13.893065889105399</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -4630,15 +4638,15 @@
       </c>
       <c r="F10" s="18">
         <f>'Table 4.1'!H9</f>
-        <v>8</v>
+        <v>7.08</v>
       </c>
       <c r="G10" s="18">
         <f t="shared" si="1"/>
-        <v>2.4430168671367305</v>
+        <v>1.5230168671367306</v>
       </c>
       <c r="H10" s="21">
         <f t="shared" si="2"/>
-        <v>5.9683314131145657</v>
+        <v>2.3195803775829815</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -4657,15 +4665,15 @@
       </c>
       <c r="F11" s="18">
         <f>'Table 4.1'!H10</f>
-        <v>43</v>
+        <v>44.2</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" si="1"/>
-        <v>-2.4971793964104805</v>
+        <v>-1.2971793964104776</v>
       </c>
       <c r="H11" s="21">
         <f t="shared" si="2"/>
-        <v>6.2359049378570113</v>
+        <v>1.6826743864718512</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -4684,15 +4692,15 @@
       </c>
       <c r="F12" s="18">
         <f>'Table 4.1'!H11</f>
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="1"/>
-        <v>4.1248247552037327</v>
+        <v>13.124824755203733</v>
       </c>
       <c r="H12" s="21">
         <f t="shared" si="2"/>
-        <v>17.014179261141532</v>
+        <v>172.26102485480871</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -4711,15 +4719,15 @@
       </c>
       <c r="F13" s="18">
         <f>'Table 4.1'!H12</f>
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="G13" s="18">
         <f t="shared" si="1"/>
-        <v>-3.725665903664293</v>
+        <v>9.274334096335707</v>
       </c>
       <c r="H13" s="21">
         <f t="shared" si="2"/>
-        <v>13.880586425726673</v>
+        <v>86.013272930455059</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -4738,7 +4746,7 @@
       </c>
       <c r="H15" s="25">
         <f>SUM(H4:H13)</f>
-        <v>2243.2419221352384</v>
+        <v>2717.4916738721386</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -4751,7 +4759,7 @@
       </c>
       <c r="H16" s="25">
         <f>SQRT(H15/(10-2))</f>
-        <v>16.74530502161441</v>
+        <v>18.430584885836296</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -4821,15 +4829,15 @@
       </c>
       <c r="F21" s="18">
         <f>'Table 4.1'!H3</f>
-        <v>39</v>
+        <v>40.01</v>
       </c>
       <c r="G21" s="18">
         <f>F21-E21</f>
-        <v>-29.29808058991938</v>
+        <v>-28.288080589919382</v>
       </c>
       <c r="H21" s="21">
         <f>G21^2</f>
-        <v>858.37752625341068</v>
+        <v>800.21550346177366</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -4875,15 +4883,15 @@
       </c>
       <c r="F22" s="18">
         <f>'Table 4.1'!H4</f>
-        <v>27</v>
+        <v>27.09</v>
       </c>
       <c r="G22" s="18">
         <f t="shared" ref="G22:G30" si="4">F22-E22</f>
-        <v>-18.564359182489987</v>
+        <v>-18.474359182489987</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" ref="H22:H30" si="5">G22^2</f>
-        <v>344.6354318565003</v>
+        <v>341.30194720365211</v>
       </c>
     </row>
     <row r="23" spans="2:18">
@@ -4956,15 +4964,15 @@
       </c>
       <c r="F25" s="18">
         <f>'Table 4.1'!H7</f>
-        <v>130</v>
+        <v>137.06</v>
       </c>
       <c r="G25" s="18">
         <f t="shared" si="4"/>
-        <v>16.73643942388091</v>
+        <v>23.796439423880912</v>
       </c>
       <c r="H25" s="21">
         <f t="shared" si="5"/>
-        <v>280.10840458923514</v>
+        <v>566.27052925443377</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -4983,15 +4991,15 @@
       </c>
       <c r="F26" s="18">
         <f>'Table 4.1'!H8</f>
-        <v>255</v>
+        <v>260.02</v>
       </c>
       <c r="G26" s="18">
         <f t="shared" si="4"/>
-        <v>0.22087051596773222</v>
+        <v>5.240870515967714</v>
       </c>
       <c r="H26" s="21">
         <f t="shared" si="5"/>
-        <v>4.8783784823852254E-2</v>
+        <v>27.466723765139694</v>
       </c>
     </row>
     <row r="27" spans="2:18">
@@ -5010,15 +5018,15 @@
       </c>
       <c r="F27" s="18">
         <f>'Table 4.1'!H9</f>
-        <v>8</v>
+        <v>7.08</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="4"/>
-        <v>3.7779881269565605</v>
+        <v>2.8579881269565606</v>
       </c>
       <c r="H27" s="21">
         <f t="shared" si="5"/>
-        <v>14.27319428742474</v>
+        <v>8.1680961338246689</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -5037,15 +5045,15 @@
       </c>
       <c r="F28" s="18">
         <f>'Table 4.1'!H10</f>
-        <v>43</v>
+        <v>44.2</v>
       </c>
       <c r="G28" s="18">
         <f t="shared" si="4"/>
-        <v>-2.5643591824899872</v>
+        <v>-1.3643591824899843</v>
       </c>
       <c r="H28" s="21">
         <f t="shared" si="5"/>
-        <v>6.5759380168207153</v>
+        <v>1.8614759788447384</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -5064,15 +5072,15 @@
       </c>
       <c r="F29" s="18">
         <f>'Table 4.1'!H11</f>
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G29" s="18">
         <f t="shared" si="4"/>
-        <v>3.1355189455375836</v>
+        <v>12.135518945537584</v>
       </c>
       <c r="H29" s="21">
         <f t="shared" si="5"/>
-        <v>9.8314790578251205</v>
+        <v>147.27082007750161</v>
       </c>
     </row>
     <row r="30" spans="2:18">
@@ -5091,15 +5099,15 @@
       </c>
       <c r="F30" s="18">
         <f>'Table 4.1'!H12</f>
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="G30" s="18">
         <f t="shared" si="4"/>
-        <v>-4.3426864766872768</v>
+        <v>8.6573135233127232</v>
       </c>
       <c r="H30" s="21">
         <f t="shared" si="5"/>
-        <v>18.858925834802555</v>
+        <v>74.949077440933351</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -5118,7 +5126,7 @@
       </c>
       <c r="H32" s="25">
         <f>SUM(H21:H30)</f>
-        <v>2234.7229665864938</v>
+        <v>2669.5174562217549</v>
       </c>
     </row>
     <row r="33" spans="2:10">
@@ -5131,7 +5139,7 @@
       </c>
       <c r="H33" s="25">
         <f>SQRT(H32/(10-3))</f>
-        <v>17.867460314319572</v>
+        <v>19.528431493673725</v>
       </c>
     </row>
     <row r="34" spans="2:10">

--- a/Lab4/Lab 4 SAWA tables.xlsx
+++ b/Lab4/Lab 4 SAWA tables.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FFFFF-30A5-4EDB-AF46-2211D4C1866A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="34620" windowHeight="13980"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 4.1" sheetId="2" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,18 +59,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="H15" authorId="0" shapeId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
-            <rFont val="Calibri"/>
+            <rFont val="等线"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -80,13 +81,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0">
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
-            <rFont val="Calibri"/>
+            <rFont val="等线"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -97,13 +98,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H32" authorId="0" shapeId="0">
+    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
-            <rFont val="Calibri"/>
+            <rFont val="等线"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -115,13 +116,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H33" authorId="0" shapeId="0">
+    <comment ref="H33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
-            <rFont val="Calibri"/>
+            <rFont val="等线"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
   <si>
     <t>Leftmost urn.</t>
   </si>
@@ -286,27 +287,40 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>95% Prediction inverval:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R output:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fill in the output from R to check the difference!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0_ "/>
-    <numFmt numFmtId="166" formatCode="0.00000000000000_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000000000000_ "/>
+    <numFmt numFmtId="181" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -335,6 +349,12 @@
       <name val="DengXian"/>
       <family val="1"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -467,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -495,7 +515,7 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -506,18 +526,21 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,6 +554,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -797,7 +829,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -823,7 +854,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -861,7 +892,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1845016287"/>
@@ -929,7 +960,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -955,7 +985,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -993,7 +1023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1704755311"/>
@@ -1034,7 +1064,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1292,7 +1322,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1318,7 +1347,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1356,7 +1385,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1845016287"/>
@@ -1424,7 +1453,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1450,7 +1478,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1488,7 +1516,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1704755311"/>
@@ -1529,7 +1557,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1794,7 +1822,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1832,7 +1860,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="160160047"/>
@@ -1925,7 +1953,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1963,7 +1991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2080999967"/>
@@ -2004,7 +2032,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3687,16 +3715,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>192742</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3723,16 +3751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>694764</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1344</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>448236</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>29135</xdr:rowOff>
+      <xdr:colOff>264459</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>40342</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4059,41 +4087,23 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H15" dT="2019-09-17T05:24:17.12" personId="{00000000-0000-0000-0000-000000000000}" id="{71C5344D-5AB8-49AC-B894-C5431D7AB1AF}">
-    <text>Use Solver to minize this value by changing cell L4 and N4</text>
-  </threadedComment>
-  <threadedComment ref="H16" dT="2019-09-18T03:29:59.35" personId="{00000000-0000-0000-0000-000000000000}" id="{BA90CDF7-B459-44A2-B663-D96DA5126340}">
-    <text>Here we lost two degree of freedom, as we have one variable x and intercept. Reference: https://en.wikipedia.org/wiki/Degrees_of_freedom_(statistics)#Of_residuals</text>
-  </threadedComment>
-  <threadedComment ref="H32" dT="2019-09-17T05:24:17.12" personId="{00000000-0000-0000-0000-000000000000}" id="{D5F3283D-BDD3-4E3C-A69D-DAA652040039}">
-    <text>Use Solver to minize this value by changing cell L21, N21 and Q
-21</text>
-  </threadedComment>
-  <threadedComment ref="H33" dT="2019-09-18T03:29:09.38" personId="{00000000-0000-0000-0000-000000000000}" id="{4E75B693-F4BC-4497-AA85-BCBB7BA3BE11}">
-    <text>Here we lost three degree of freedom, as we have two variables and one intercept. Reference: https://en.wikipedia.org/wiki/Degrees_of_freedom_(statistics)#Of_residuals</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.296875" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.296875" customWidth="1"/>
+    <col min="5" max="5" width="29.69921875" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" customWidth="1"/>
+    <col min="7" max="7" width="21.69921875" customWidth="1"/>
+    <col min="8" max="8" width="39.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="36.6" customHeight="1">
@@ -4119,7 +4129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="35.450000000000003" customHeight="1">
+    <row r="3" spans="2:8" ht="35.5" customHeight="1">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -4143,7 +4153,7 @@
         <v>40.01</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75">
+    <row r="4" spans="2:8" ht="15.3">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -4167,7 +4177,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75">
+    <row r="5" spans="2:8" ht="15.3">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -4191,7 +4201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75">
+    <row r="6" spans="2:8" ht="15.3">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -4215,7 +4225,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75">
+    <row r="7" spans="2:8" ht="15.3">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -4239,7 +4249,7 @@
         <v>137.06</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75">
+    <row r="8" spans="2:8" ht="15.3">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -4263,7 +4273,7 @@
         <v>260.02</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75">
+    <row r="9" spans="2:8" ht="15.3">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -4287,7 +4297,7 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75">
+    <row r="10" spans="2:8" ht="15.3">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -4311,7 +4321,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75">
+    <row r="11" spans="2:8" ht="15.3">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -4335,7 +4345,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75">
+    <row r="12" spans="2:8" ht="15.3">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -4359,7 +4369,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75">
+    <row r="13" spans="2:8" ht="15.3">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -4369,7 +4379,7 @@
       <c r="D13" s="3"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:8" ht="15.75">
+    <row r="14" spans="2:8" ht="15.3">
       <c r="F14" s="1"/>
     </row>
   </sheetData>
@@ -4379,45 +4389,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:R35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.84765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.84765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="2" customWidth="1"/>
     <col min="9" max="9" width="3" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="10" max="10" width="9.1484375" style="2"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
     <col min="12" max="12" width="7" style="2" customWidth="1"/>
-    <col min="13" max="13" width="2.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="17.42578125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="2"/>
+    <col min="13" max="13" width="2.3984375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.84765625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="2.3984375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.1484375" style="2"/>
+    <col min="18" max="18" width="17.3984375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.1484375" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="J2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="4" t="s">
@@ -4440,6 +4458,20 @@
       </c>
       <c r="H3" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="34"/>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="26" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:15">
@@ -4750,10 +4782,10 @@
       </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="30"/>
       <c r="G16" s="24" t="s">
         <v>32</v>
       </c>
@@ -4763,32 +4795,49 @@
       </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="26" t="str">
+      <c r="G17" s="27" t="str">
         <f>K4&amp;ROUND(L4,2)&amp;M4&amp;ROUND(N4,2)&amp;O4</f>
         <v>Predict_Distance =1.12+1.11*Gussed_Distance</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="F18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="25">
+        <f>-2*H16</f>
+        <v>-36.861169771672593</v>
+      </c>
+      <c r="H18" s="25">
+        <f>2*H16</f>
+        <v>36.861169771672593</v>
+      </c>
     </row>
     <row r="19" spans="2:18">
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="4" t="s">
@@ -4812,6 +4861,27 @@
       <c r="H20" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="J20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="34"/>
+      <c r="M20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="34"/>
+      <c r="O20" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="26" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="4">
@@ -4860,7 +4930,7 @@
       <c r="P21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="32">
         <v>-2.0915117860795626E-4</v>
       </c>
       <c r="R21" s="14" t="s">
@@ -5130,10 +5200,10 @@
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="31"/>
       <c r="G33" s="24" t="s">
         <v>32</v>
       </c>
@@ -5143,21 +5213,36 @@
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="F34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="26" t="str">
-        <f>K21&amp;ROUND(L21,2)&amp;M21&amp;ROUND(N21,2)&amp;O21&amp;P21&amp;ROUND(Q21,2)&amp;R21</f>
-        <v>Predict_Distance =-0.41+1.16*Gussed_Distance+0*Gussed_Distance^2</v>
-      </c>
-      <c r="H34" s="26"/>
+      <c r="G34" s="27" t="str">
+        <f>K21&amp;ROUND(L21,2)&amp;M21&amp;ROUND(N21,2)&amp;O21&amp;P21&amp;ROUND(Q21,5)&amp;R21</f>
+        <v>Predict_Distance =-0.41+1.16*Gussed_Distance+-0.00021*Gussed_Distance^2</v>
+      </c>
+      <c r="H34" s="27"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
     </row>
+    <row r="35" spans="2:10">
+      <c r="F35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="25">
+        <f>-2*H33</f>
+        <v>-39.056862987347451</v>
+      </c>
+      <c r="H35" s="25">
+        <f>2*H33</f>
+        <v>39.056862987347451</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J19:O19"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C19:H19"/>

--- a/Lab4/Lab 4 SAWA tables.xlsx
+++ b/Lab4/Lab 4 SAWA tables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FFFFF-30A5-4EDB-AF46-2211D4C1866A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A3A557-D964-44FF-87C3-9A389247BE60}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 4.1" sheetId="2" r:id="rId1"/>
@@ -308,7 +308,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.00000000000000_ "/>
-    <numFmt numFmtId="181" formatCode="0.00000"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -541,10 +541,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -556,21 +565,80 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3834,7 +3902,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4095,18 +4163,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="2.296875" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="24.296875" customWidth="1"/>
-    <col min="5" max="5" width="29.69921875" customWidth="1"/>
-    <col min="6" max="6" width="20.3984375" customWidth="1"/>
-    <col min="7" max="7" width="21.69921875" customWidth="1"/>
-    <col min="8" max="8" width="39.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="36.6" customHeight="1">
+    <row r="2" spans="2:8" ht="36.65" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
@@ -4153,7 +4221,7 @@
         <v>40.01</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.3">
+    <row r="4" spans="2:8" ht="15.5">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -4177,7 +4245,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.3">
+    <row r="5" spans="2:8" ht="15.5">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -4201,7 +4269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.3">
+    <row r="6" spans="2:8" ht="15.5">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -4225,7 +4293,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.3">
+    <row r="7" spans="2:8" ht="15.5">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -4249,7 +4317,7 @@
         <v>137.06</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.3">
+    <row r="8" spans="2:8" ht="15.5">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -4273,7 +4341,7 @@
         <v>260.02</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.3">
+    <row r="9" spans="2:8" ht="15.5">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -4297,7 +4365,7 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.3">
+    <row r="10" spans="2:8" ht="15.5">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -4321,7 +4389,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.3">
+    <row r="11" spans="2:8" ht="15.5">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -4345,7 +4413,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.3">
+    <row r="12" spans="2:8" ht="15.5">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -4369,7 +4437,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.3">
+    <row r="13" spans="2:8" ht="15.5">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -4379,7 +4447,7 @@
       <c r="D13" s="3"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:8" ht="15.3">
+    <row r="14" spans="2:8" ht="15.5">
       <c r="F14" s="1"/>
     </row>
   </sheetData>
@@ -4393,49 +4461,49 @@
   <dimension ref="B2:R35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="1.84765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.84765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.3984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.4140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.4140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="3" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.1484375" style="2"/>
+    <col min="10" max="10" width="9.1640625" style="2"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
     <col min="12" max="12" width="7" style="2" customWidth="1"/>
-    <col min="13" max="13" width="2.3984375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.84765625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.3984375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.1484375" style="2"/>
-    <col min="18" max="18" width="17.3984375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.1484375" style="2"/>
+    <col min="13" max="13" width="2.4140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.58203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="2.4140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" style="2"/>
+    <col min="18" max="18" width="17.4140625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="J2" s="28" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="J2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="4" t="s">
@@ -4465,11 +4533,11 @@
       <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="34"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="34"/>
+      <c r="N3" s="29"/>
       <c r="O3" s="26" t="s">
         <v>19</v>
       </c>
@@ -4782,10 +4850,10 @@
       </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="33"/>
       <c r="G16" s="24" t="s">
         <v>32</v>
       </c>
@@ -4795,22 +4863,22 @@
       </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="27" t="str">
+      <c r="G17" s="31" t="str">
         <f>K4&amp;ROUND(L4,2)&amp;M4&amp;ROUND(N4,2)&amp;O4</f>
         <v>Predict_Distance =1.12+1.11*Gussed_Distance</v>
       </c>
-      <c r="H17" s="27"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
@@ -4824,20 +4892,20 @@
       </c>
     </row>
     <row r="19" spans="2:18">
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="4" t="s">
@@ -4867,18 +4935,18 @@
       <c r="K20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="34"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="34"/>
+      <c r="N20" s="29"/>
       <c r="O20" s="26" t="s">
         <v>19</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="33"/>
+      <c r="Q20" s="28"/>
       <c r="R20" s="26" t="s">
         <v>28</v>
       </c>
@@ -4930,7 +4998,7 @@
       <c r="P21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="32">
+      <c r="Q21" s="27">
         <v>-2.0915117860795626E-4</v>
       </c>
       <c r="R21" s="14" t="s">
@@ -5200,10 +5268,10 @@
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="31"/>
+      <c r="C33" s="34"/>
       <c r="G33" s="24" t="s">
         <v>32</v>
       </c>
@@ -5213,16 +5281,16 @@
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="F34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="27" t="str">
+      <c r="G34" s="31" t="str">
         <f>K21&amp;ROUND(L21,2)&amp;M21&amp;ROUND(N21,2)&amp;O21&amp;P21&amp;ROUND(Q21,5)&amp;R21</f>
         <v>Predict_Distance =-0.41+1.16*Gussed_Distance+-0.00021*Gussed_Distance^2</v>
       </c>
-      <c r="H34" s="27"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
     </row>
@@ -5241,14 +5309,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="B33:C34"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="J19:O19"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="B33:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab4/Lab 4 SAWA tables.xlsx
+++ b/Lab4/Lab 4 SAWA tables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A3A557-D964-44FF-87C3-9A389247BE60}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A5F9D0-B633-49FA-AF74-9884D0D372B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 4.1" sheetId="2" r:id="rId1"/>
@@ -550,9 +550,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,6 +560,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -727,34 +727,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>67.686177320603377</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.49717939641048</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.213682510121137</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.591678358506925</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.06417316898916</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256.29265967624292</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5569831328632695</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.49717939641048</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.875175244796267</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>189.72566590366429</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,34 +1220,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>68.29808058991938</c:v>
+                  <c:v>65.451024832908033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.564359182489987</c:v>
+                  <c:v>44.299001068262719</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.150050303433964</c:v>
+                  <c:v>11.07096542129476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.952135004065489</c:v>
+                  <c:v>54.975012950585381</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113.26356057611909</c:v>
+                  <c:v>105.35507236219865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>254.77912948403227</c:v>
+                  <c:v>212.94322683239315</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2220118730434395</c:v>
+                  <c:v>4.2093582919011672</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.564359182489987</c:v>
+                  <c:v>44.299001068262719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.864481054462416</c:v>
+                  <c:v>85.803048597553328</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>190.34268647668728</c:v>
+                  <c:v>167.48715553845722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,6 +1800,155 @@
         <c:axId val="2080999967"/>
         <c:axId val="160160047"/>
       </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Table 4.2'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predict_Distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table 4.2'!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table 4.2'!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A65A-448A-BC0F-3218F0A7CA0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="166031151"/>
+        <c:axId val="166031567"/>
+      </c:scatterChart>
       <c:valAx>
         <c:axId val="2080999967"/>
         <c:scaling>
@@ -1821,20 +1970,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1956,20 +2091,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2063,6 +2184,636 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2080999967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="166031567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166031151"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="166031151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166031567"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Table 4.2'!$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>True_Distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table 4.2'!$D$21:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table 4.2'!$F$21:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>260.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6662-4986-B121-BB80881FDE6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Table 4.2'!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predict_Distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table 4.2'!$E$21:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65.451024832908033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.299001068262719</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.07096542129476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.975012950585381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105.35507236219865</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212.94322683239315</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2093582919011672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.299001068262719</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.803048597553328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>167.48715553845722</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table 4.2'!$D$21:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6662-4986-B121-BB80881FDE6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1214770303"/>
+        <c:axId val="166033647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1214770303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Guessed_Distance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166033647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="166033647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>True Distance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214770303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2231,6 +2982,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3779,20 +4570,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>264459</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>93756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>192742</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>331695</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>40341</xdr:rowOff>
+      <xdr:rowOff>13447</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3819,16 +5126,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1344</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342003</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>264459</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>479612</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>40342</xdr:rowOff>
+      <xdr:rowOff>129988</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3857,16 +5164,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>664884</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>73214</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>112057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>164354</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>168837</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>74706</xdr:rowOff>
+      <xdr:rowOff>34364</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3886,6 +5193,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>58270</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>147918</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C19D673-529D-4EC9-A18A-BC3F6A5BA9B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4163,18 +5506,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.34765625" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.34765625" customWidth="1"/>
+    <col min="5" max="5" width="29.6484375" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" customWidth="1"/>
+    <col min="7" max="7" width="21.6484375" customWidth="1"/>
+    <col min="8" max="8" width="39.34765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="36.65" customHeight="1">
+    <row r="2" spans="2:8" ht="36.700000000000003" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
@@ -4221,7 +5564,7 @@
         <v>40.01</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.5">
+    <row r="4" spans="2:8" ht="15.3">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -4245,7 +5588,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.5">
+    <row r="5" spans="2:8" ht="15.3">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -4269,7 +5612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.5">
+    <row r="6" spans="2:8" ht="15.3">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -4293,7 +5636,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.5">
+    <row r="7" spans="2:8" ht="15.3">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -4317,7 +5660,7 @@
         <v>137.06</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.5">
+    <row r="8" spans="2:8" ht="15.3">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -4341,7 +5684,7 @@
         <v>260.02</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.5">
+    <row r="9" spans="2:8" ht="15.3">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -4365,7 +5708,7 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.5">
+    <row r="10" spans="2:8" ht="15.3">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -4389,7 +5732,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.5">
+    <row r="11" spans="2:8" ht="15.3">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -4413,7 +5756,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.5">
+    <row r="12" spans="2:8" ht="15.3">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -4437,7 +5780,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.5">
+    <row r="13" spans="2:8" ht="15.3">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -4447,7 +5790,7 @@
       <c r="D13" s="3"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:8" ht="15.5">
+    <row r="14" spans="2:8" ht="15.3">
       <c r="F14" s="1"/>
     </row>
   </sheetData>
@@ -4460,50 +5803,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:R35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.4140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.4140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.84765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.84765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.6484375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.6484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.6484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.6484375" style="2" customWidth="1"/>
     <col min="9" max="9" width="3" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="2"/>
+    <col min="10" max="10" width="9.1484375" style="2"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
     <col min="12" max="12" width="7" style="2" customWidth="1"/>
-    <col min="13" max="13" width="2.4140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.58203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.4140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="2"/>
-    <col min="18" max="18" width="17.4140625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="2"/>
+    <col min="13" max="13" width="2.3984375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.59765625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.84765625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="2.3984375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.1484375" style="2"/>
+    <col min="18" max="18" width="17.3984375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.1484375" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="J2" s="30" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="J2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="4" t="s">
@@ -4554,7 +5897,7 @@
       </c>
       <c r="E4" s="18">
         <f>$L$4+$N$4*D4</f>
-        <v>67.686177320603377</v>
+        <v>121</v>
       </c>
       <c r="F4" s="18">
         <f>'Table 4.1'!H3</f>
@@ -4562,11 +5905,11 @@
       </c>
       <c r="G4" s="18">
         <f>F4-E4</f>
-        <v>-27.676177320603379</v>
+        <v>-80.990000000000009</v>
       </c>
       <c r="H4" s="21">
         <f>G4^2</f>
-        <v>765.97079108148091</v>
+        <v>6559.3801000000012</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -4575,13 +5918,13 @@
         <v>27</v>
       </c>
       <c r="L4" s="17">
-        <v>1.1191835480246908</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="17">
-        <v>1.1094498962096446</v>
+        <v>2</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>19</v>
@@ -4599,7 +5942,7 @@
       </c>
       <c r="E5" s="18">
         <f t="shared" ref="E5:E13" si="0">$L$4+$N$4*D5</f>
-        <v>45.49717939641048</v>
+        <v>81</v>
       </c>
       <c r="F5" s="18">
         <f>'Table 4.1'!H4</f>
@@ -4607,11 +5950,11 @@
       </c>
       <c r="G5" s="18">
         <f t="shared" ref="G5:G13" si="1">F5-E5</f>
-        <v>-18.407179396410481</v>
+        <v>-53.91</v>
       </c>
       <c r="H5" s="21">
         <f t="shared" ref="H5:H13" si="2">G5^2</f>
-        <v>338.82425333163849</v>
+        <v>2906.2880999999998</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -4626,7 +5969,7 @@
       </c>
       <c r="E6" s="18">
         <f t="shared" si="0"/>
-        <v>12.213682510121137</v>
+        <v>21</v>
       </c>
       <c r="F6" s="18">
         <f>'Table 4.1'!H5</f>
@@ -4634,11 +5977,11 @@
       </c>
       <c r="G6" s="18">
         <f t="shared" si="1"/>
-        <v>3.7863174898788632</v>
+        <v>-5</v>
       </c>
       <c r="H6" s="21">
         <f t="shared" si="2"/>
-        <v>14.336200134162576</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -4653,7 +5996,7 @@
       </c>
       <c r="E7" s="18">
         <f t="shared" si="0"/>
-        <v>56.591678358506925</v>
+        <v>101</v>
       </c>
       <c r="F7" s="18">
         <f>'Table 4.1'!H6</f>
@@ -4661,11 +6004,11 @@
       </c>
       <c r="G7" s="18">
         <f t="shared" si="1"/>
-        <v>26.408321641493075</v>
+        <v>-18</v>
       </c>
       <c r="H7" s="21">
         <f t="shared" si="2"/>
-        <v>697.39945192055143</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -4680,7 +6023,7 @@
       </c>
       <c r="E8" s="18">
         <f t="shared" si="0"/>
-        <v>112.06417316898916</v>
+        <v>201</v>
       </c>
       <c r="F8" s="18">
         <f>'Table 4.1'!H7</f>
@@ -4688,11 +6031,11 @@
       </c>
       <c r="G8" s="18">
         <f t="shared" si="1"/>
-        <v>24.995826831010845</v>
+        <v>-63.94</v>
       </c>
       <c r="H8" s="21">
         <f t="shared" si="2"/>
-        <v>624.79135896588161</v>
+        <v>4088.3235999999997</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -4707,7 +6050,7 @@
       </c>
       <c r="E9" s="18">
         <f t="shared" si="0"/>
-        <v>256.29265967624292</v>
+        <v>461</v>
       </c>
       <c r="F9" s="18">
         <f>'Table 4.1'!H8</f>
@@ -4715,11 +6058,11 @@
       </c>
       <c r="G9" s="18">
         <f t="shared" si="1"/>
-        <v>3.7273403237570619</v>
+        <v>-200.98000000000002</v>
       </c>
       <c r="H9" s="21">
         <f t="shared" si="2"/>
-        <v>13.893065889105399</v>
+        <v>40392.960400000011</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -4734,7 +6077,7 @@
       </c>
       <c r="E10" s="18">
         <f t="shared" si="0"/>
-        <v>5.5569831328632695</v>
+        <v>9</v>
       </c>
       <c r="F10" s="18">
         <f>'Table 4.1'!H9</f>
@@ -4742,11 +6085,11 @@
       </c>
       <c r="G10" s="18">
         <f t="shared" si="1"/>
-        <v>1.5230168671367306</v>
+        <v>-1.92</v>
       </c>
       <c r="H10" s="21">
         <f t="shared" si="2"/>
-        <v>2.3195803775829815</v>
+        <v>3.6863999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -4761,7 +6104,7 @@
       </c>
       <c r="E11" s="18">
         <f t="shared" si="0"/>
-        <v>45.49717939641048</v>
+        <v>81</v>
       </c>
       <c r="F11" s="18">
         <f>'Table 4.1'!H10</f>
@@ -4769,11 +6112,11 @@
       </c>
       <c r="G11" s="18">
         <f t="shared" si="1"/>
-        <v>-1.2971793964104776</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="H11" s="21">
         <f t="shared" si="2"/>
-        <v>1.6826743864718512</v>
+        <v>1354.2399999999998</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -4788,7 +6131,7 @@
       </c>
       <c r="E12" s="18">
         <f t="shared" si="0"/>
-        <v>89.875175244796267</v>
+        <v>161</v>
       </c>
       <c r="F12" s="18">
         <f>'Table 4.1'!H11</f>
@@ -4796,11 +6139,11 @@
       </c>
       <c r="G12" s="18">
         <f t="shared" si="1"/>
-        <v>13.124824755203733</v>
+        <v>-58</v>
       </c>
       <c r="H12" s="21">
         <f t="shared" si="2"/>
-        <v>172.26102485480871</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -4815,7 +6158,7 @@
       </c>
       <c r="E13" s="18">
         <f t="shared" si="0"/>
-        <v>189.72566590366429</v>
+        <v>341</v>
       </c>
       <c r="F13" s="18">
         <f>'Table 4.1'!H12</f>
@@ -4823,11 +6166,11 @@
       </c>
       <c r="G13" s="18">
         <f t="shared" si="1"/>
-        <v>9.274334096335707</v>
+        <v>-142</v>
       </c>
       <c r="H13" s="21">
         <f t="shared" si="2"/>
-        <v>86.013272930455059</v>
+        <v>20164</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -4846,66 +6189,66 @@
       </c>
       <c r="H15" s="25">
         <f>SUM(H4:H13)</f>
-        <v>2717.4916738721386</v>
+        <v>79181.878600000011</v>
       </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="32"/>
       <c r="G16" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="25">
         <f>SQRT(H15/(10-2))</f>
-        <v>18.430584885836296</v>
+        <v>99.487360126802045</v>
       </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="31" t="str">
+      <c r="G17" s="30" t="str">
         <f>K4&amp;ROUND(L4,2)&amp;M4&amp;ROUND(N4,2)&amp;O4</f>
-        <v>Predict_Distance =1.12+1.11*Gussed_Distance</v>
-      </c>
-      <c r="H17" s="31"/>
+        <v>Predict_Distance =1+2*Gussed_Distance</v>
+      </c>
+      <c r="H17" s="30"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="25">
         <f>-2*H16</f>
-        <v>-36.861169771672593</v>
+        <v>-198.97472025360409</v>
       </c>
       <c r="H18" s="25">
         <f>2*H16</f>
-        <v>36.861169771672593</v>
+        <v>198.97472025360409</v>
       </c>
     </row>
     <row r="19" spans="2:18">
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="4" t="s">
@@ -4963,7 +6306,7 @@
       </c>
       <c r="E21" s="18">
         <f>$L$21+$N$21*D21+$Q$21*D21^2</f>
-        <v>68.29808058991938</v>
+        <v>65.451024832908033</v>
       </c>
       <c r="F21" s="18">
         <f>'Table 4.1'!H3</f>
@@ -4971,11 +6314,11 @@
       </c>
       <c r="G21" s="18">
         <f>F21-E21</f>
-        <v>-28.288080589919382</v>
+        <v>-25.441024832908035</v>
       </c>
       <c r="H21" s="21">
         <f>G21^2</f>
-        <v>800.21550346177366</v>
+        <v>647.2457445486433</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -4999,7 +6342,7 @@
         <v>18</v>
       </c>
       <c r="Q21" s="27">
-        <v>-2.0915117860795626E-4</v>
+        <v>-1E-3</v>
       </c>
       <c r="R21" s="14" t="s">
         <v>28</v>
@@ -5017,7 +6360,7 @@
       </c>
       <c r="E22" s="18">
         <f t="shared" ref="E22:E30" si="3">$L$21+$N$21*D22+$Q$21*D22^2</f>
-        <v>45.564359182489987</v>
+        <v>44.299001068262719</v>
       </c>
       <c r="F22" s="18">
         <f>'Table 4.1'!H4</f>
@@ -5025,11 +6368,11 @@
       </c>
       <c r="G22" s="18">
         <f t="shared" ref="G22:G30" si="4">F22-E22</f>
-        <v>-18.474359182489987</v>
+        <v>-17.209001068262719</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" ref="H22:H30" si="5">G22^2</f>
-        <v>341.30194720365211</v>
+        <v>296.14971776746739</v>
       </c>
     </row>
     <row r="23" spans="2:18">
@@ -5044,7 +6387,7 @@
       </c>
       <c r="E23" s="18">
         <f t="shared" si="3"/>
-        <v>11.150050303433964</v>
+        <v>11.07096542129476</v>
       </c>
       <c r="F23" s="18">
         <f>'Table 4.1'!H5</f>
@@ -5052,11 +6395,11 @@
       </c>
       <c r="G23" s="18">
         <f t="shared" si="4"/>
-        <v>4.8499496965660356</v>
+        <v>4.9290345787052399</v>
       </c>
       <c r="H23" s="21">
         <f t="shared" si="5"/>
-        <v>23.52201205922098</v>
+        <v>24.295381878071943</v>
       </c>
     </row>
     <row r="24" spans="2:18">
@@ -5071,7 +6414,7 @@
       </c>
       <c r="E24" s="18">
         <f t="shared" si="3"/>
-        <v>56.952135004065489</v>
+        <v>54.975012950585381</v>
       </c>
       <c r="F24" s="18">
         <f>'Table 4.1'!H6</f>
@@ -5079,11 +6422,11 @@
       </c>
       <c r="G24" s="18">
         <f t="shared" si="4"/>
-        <v>26.047864995934511</v>
+        <v>28.024987049414619</v>
       </c>
       <c r="H24" s="21">
         <f t="shared" si="5"/>
-        <v>678.49127084643033</v>
+        <v>785.39989911985708</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -5098,7 +6441,7 @@
       </c>
       <c r="E25" s="18">
         <f t="shared" si="3"/>
-        <v>113.26356057611909</v>
+        <v>105.35507236219865</v>
       </c>
       <c r="F25" s="18">
         <f>'Table 4.1'!H7</f>
@@ -5106,11 +6449,11 @@
       </c>
       <c r="G25" s="18">
         <f t="shared" si="4"/>
-        <v>23.796439423880912</v>
+        <v>31.704927637801347</v>
       </c>
       <c r="H25" s="21">
         <f t="shared" si="5"/>
-        <v>566.27052925443377</v>
+        <v>1005.2024365182198</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -5125,7 +6468,7 @@
       </c>
       <c r="E26" s="18">
         <f t="shared" si="3"/>
-        <v>254.77912948403227</v>
+        <v>212.94322683239315</v>
       </c>
       <c r="F26" s="18">
         <f>'Table 4.1'!H8</f>
@@ -5133,11 +6476,11 @@
       </c>
       <c r="G26" s="18">
         <f t="shared" si="4"/>
-        <v>5.240870515967714</v>
+        <v>47.076773167606831</v>
       </c>
       <c r="H26" s="21">
         <f t="shared" si="5"/>
-        <v>27.466723765139694</v>
+        <v>2216.2225718743066</v>
       </c>
     </row>
     <row r="27" spans="2:18">
@@ -5152,7 +6495,7 @@
       </c>
       <c r="E27" s="18">
         <f t="shared" si="3"/>
-        <v>4.2220118730434395</v>
+        <v>4.2093582919011672</v>
       </c>
       <c r="F27" s="18">
         <f>'Table 4.1'!H9</f>
@@ -5160,11 +6503,11 @@
       </c>
       <c r="G27" s="18">
         <f t="shared" si="4"/>
-        <v>2.8579881269565606</v>
+        <v>2.8706417080988329</v>
       </c>
       <c r="H27" s="21">
         <f t="shared" si="5"/>
-        <v>8.1680961338246689</v>
+        <v>8.240583816276585</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -5179,7 +6522,7 @@
       </c>
       <c r="E28" s="18">
         <f t="shared" si="3"/>
-        <v>45.564359182489987</v>
+        <v>44.299001068262719</v>
       </c>
       <c r="F28" s="18">
         <f>'Table 4.1'!H10</f>
@@ -5187,11 +6530,11 @@
       </c>
       <c r="G28" s="18">
         <f t="shared" si="4"/>
-        <v>-1.3643591824899843</v>
+        <v>-9.9001068262715819E-2</v>
       </c>
       <c r="H28" s="21">
         <f t="shared" si="5"/>
-        <v>1.8614759788447384</v>
+        <v>9.801211517158917E-3</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -5206,7 +6549,7 @@
       </c>
       <c r="E29" s="18">
         <f t="shared" si="3"/>
-        <v>90.864481054462416</v>
+        <v>85.803048597553328</v>
       </c>
       <c r="F29" s="18">
         <f>'Table 4.1'!H11</f>
@@ -5214,11 +6557,11 @@
       </c>
       <c r="G29" s="18">
         <f t="shared" si="4"/>
-        <v>12.135518945537584</v>
+        <v>17.196951402446672</v>
       </c>
       <c r="H29" s="21">
         <f t="shared" si="5"/>
-        <v>147.27082007750161</v>
+        <v>295.73513753811255</v>
       </c>
     </row>
     <row r="30" spans="2:18">
@@ -5233,7 +6576,7 @@
       </c>
       <c r="E30" s="18">
         <f t="shared" si="3"/>
-        <v>190.34268647668728</v>
+        <v>167.48715553845722</v>
       </c>
       <c r="F30" s="18">
         <f>'Table 4.1'!H12</f>
@@ -5241,11 +6584,11 @@
       </c>
       <c r="G30" s="18">
         <f t="shared" si="4"/>
-        <v>8.6573135233127232</v>
+        <v>31.512844461542784</v>
       </c>
       <c r="H30" s="21">
         <f t="shared" si="5"/>
-        <v>74.949077440933351</v>
+        <v>993.05936605738771</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -5264,33 +6607,33 @@
       </c>
       <c r="H32" s="25">
         <f>SUM(H21:H30)</f>
-        <v>2669.5174562217549</v>
+        <v>6271.5606403298589</v>
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="33"/>
       <c r="G33" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="25">
         <f>SQRT(H32/(10-3))</f>
-        <v>19.528431493673725</v>
+        <v>29.932210648945343</v>
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="F34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="31" t="str">
+      <c r="G34" s="30" t="str">
         <f>K21&amp;ROUND(L21,2)&amp;M21&amp;ROUND(N21,2)&amp;O21&amp;P21&amp;ROUND(Q21,5)&amp;R21</f>
-        <v>Predict_Distance =-0.41+1.16*Gussed_Distance+-0.00021*Gussed_Distance^2</v>
-      </c>
-      <c r="H34" s="31"/>
+        <v>Predict_Distance =-0.41+1.16*Gussed_Distance+-0.001*Gussed_Distance^2</v>
+      </c>
+      <c r="H34" s="30"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
     </row>
@@ -5300,11 +6643,11 @@
       </c>
       <c r="G35" s="25">
         <f>-2*H33</f>
-        <v>-39.056862987347451</v>
+        <v>-59.864421297890686</v>
       </c>
       <c r="H35" s="25">
         <f>2*H33</f>
-        <v>39.056862987347451</v>
+        <v>59.864421297890686</v>
       </c>
     </row>
   </sheetData>

--- a/Lab4/Lab 4 SAWA tables.xlsx
+++ b/Lab4/Lab 4 SAWA tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Table 4.1" sheetId="2" r:id="rId1"/>
@@ -697,34 +697,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
+                  <c:v>83.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134</c:v>
+                  <c:v>134.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>7.66</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>199</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,7 +828,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -960,7 +959,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1192,34 +1190,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
+                  <c:v>83.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134</c:v>
+                  <c:v>134.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>7.66</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>199</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1323,7 +1321,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1455,7 +1452,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1685,34 +1681,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
+                  <c:v>83.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134</c:v>
+                  <c:v>134.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>7.66</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>199</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1935,7 +1931,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2053,7 +2048,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2334,34 +2328,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
+                  <c:v>83.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134</c:v>
+                  <c:v>134.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>7.66</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>199</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,7 +2565,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2686,7 +2679,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5442,8 +5434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5494,14 +5486,14 @@
         <v>39</v>
       </c>
       <c r="F3" s="7">
+        <v>41.8</v>
+      </c>
+      <c r="G3" s="6">
         <v>41</v>
-      </c>
-      <c r="G3" s="6">
-        <v>40</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H12" si="0">MEDIAN(E3:G3)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75">
@@ -5518,14 +5510,14 @@
         <v>27</v>
       </c>
       <c r="F4" s="7">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="G4" s="6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75">
@@ -5542,7 +5534,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7">
-        <v>13</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G5" s="6">
         <v>16</v>
@@ -5566,14 +5558,14 @@
         <v>83</v>
       </c>
       <c r="F6" s="7">
-        <v>84</v>
+        <v>83.2</v>
       </c>
       <c r="G6" s="6">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75">
@@ -5590,14 +5582,14 @@
         <v>130</v>
       </c>
       <c r="F7" s="7">
-        <v>134</v>
+        <v>134.25</v>
       </c>
       <c r="G7" s="6">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>134.25</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75">
@@ -5614,10 +5606,10 @@
         <v>255</v>
       </c>
       <c r="F8" s="7">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="G8" s="6">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
@@ -5638,14 +5630,14 @@
         <v>8</v>
       </c>
       <c r="F9" s="7">
-        <v>8</v>
+        <v>7.66</v>
       </c>
       <c r="G9" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75">
@@ -5665,7 +5657,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="6">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
@@ -5689,11 +5681,11 @@
         <v>103</v>
       </c>
       <c r="G11" s="6">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75">
@@ -5710,14 +5702,14 @@
         <v>186</v>
       </c>
       <c r="F12" s="7">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G12" s="6">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75">
@@ -5841,15 +5833,15 @@
       </c>
       <c r="F4" s="18">
         <f>'Table 4.1'!H3</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="18">
         <f>F4-E4</f>
-        <v>-81</v>
+        <v>-80</v>
       </c>
       <c r="H4" s="21">
         <f>G4^2</f>
-        <v>6561</v>
+        <v>6400</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -5886,15 +5878,15 @@
       </c>
       <c r="F5" s="18">
         <f>'Table 4.1'!H4</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" ref="G5:G13" si="1">F5-E5</f>
-        <v>-52</v>
+        <v>-54</v>
       </c>
       <c r="H5" s="21">
         <f t="shared" ref="H5:H13" si="2">G5^2</f>
-        <v>2704</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -5940,15 +5932,15 @@
       </c>
       <c r="F7" s="18">
         <f>'Table 4.1'!H6</f>
-        <v>83</v>
+        <v>83.2</v>
       </c>
       <c r="G7" s="18">
         <f t="shared" si="1"/>
-        <v>-18</v>
+        <v>-17.799999999999997</v>
       </c>
       <c r="H7" s="21">
         <f t="shared" si="2"/>
-        <v>324</v>
+        <v>316.83999999999992</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -5967,15 +5959,15 @@
       </c>
       <c r="F8" s="18">
         <f>'Table 4.1'!H7</f>
-        <v>134</v>
+        <v>134.25</v>
       </c>
       <c r="G8" s="18">
         <f t="shared" si="1"/>
-        <v>-67</v>
+        <v>-66.75</v>
       </c>
       <c r="H8" s="21">
         <f t="shared" si="2"/>
-        <v>4489</v>
+        <v>4455.5625</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -6021,15 +6013,15 @@
       </c>
       <c r="F10" s="18">
         <f>'Table 4.1'!H9</f>
-        <v>8</v>
+        <v>7.66</v>
       </c>
       <c r="G10" s="18">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-1.3399999999999999</v>
       </c>
       <c r="H10" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.7955999999999996</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -6075,15 +6067,15 @@
       </c>
       <c r="F12" s="18">
         <f>'Table 4.1'!H11</f>
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="1"/>
-        <v>-58</v>
+        <v>-61</v>
       </c>
       <c r="H12" s="21">
         <f t="shared" si="2"/>
-        <v>3364</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -6102,15 +6094,15 @@
       </c>
       <c r="F13" s="18">
         <f>'Table 4.1'!H12</f>
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G13" s="18">
         <f t="shared" si="1"/>
-        <v>-142</v>
+        <v>-155</v>
       </c>
       <c r="H13" s="21">
         <f t="shared" si="2"/>
-        <v>20164</v>
+        <v>24025</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -6129,7 +6121,7 @@
       </c>
       <c r="H15" s="25">
         <f>SUM(H4:H13)</f>
-        <v>81512</v>
+        <v>85741.198099999994</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -6142,7 +6134,7 @@
       </c>
       <c r="H16" s="25">
         <f>SQRT(H15/(10-2))</f>
-        <v>100.94057657849989</v>
+        <v>103.52608252271501</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -6167,11 +6159,11 @@
       </c>
       <c r="G18" s="25">
         <f>-2*H16</f>
-        <v>-201.88115315699977</v>
+        <v>-207.05216504543003</v>
       </c>
       <c r="H18" s="25">
         <f>2*H16</f>
-        <v>201.88115315699977</v>
+        <v>207.05216504543003</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -6250,15 +6242,15 @@
       </c>
       <c r="F21" s="18">
         <f>'Table 4.1'!H3</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G21" s="18">
         <f>F21-E21</f>
-        <v>-25.451024832908033</v>
+        <v>-24.451024832908033</v>
       </c>
       <c r="H21" s="21">
         <f>G21^2</f>
-        <v>647.75466504530129</v>
+        <v>597.85261537948531</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -6304,15 +6296,15 @@
       </c>
       <c r="F22" s="18">
         <f>'Table 4.1'!H4</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G22" s="18">
         <f t="shared" ref="G22:G30" si="4">F22-E22</f>
-        <v>-15.299001068262719</v>
+        <v>-17.299001068262719</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" ref="H22:H30" si="5">G22^2</f>
-        <v>234.05943368670381</v>
+        <v>299.25543795975466</v>
       </c>
     </row>
     <row r="23" spans="2:18">
@@ -6358,15 +6350,15 @@
       </c>
       <c r="F24" s="18">
         <f>'Table 4.1'!H6</f>
-        <v>83</v>
+        <v>83.2</v>
       </c>
       <c r="G24" s="18">
         <f t="shared" si="4"/>
-        <v>28.024987049414619</v>
+        <v>28.224987049414622</v>
       </c>
       <c r="H24" s="21">
         <f t="shared" si="5"/>
-        <v>785.39989911985708</v>
+        <v>796.6498939396231</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -6385,15 +6377,15 @@
       </c>
       <c r="F25" s="18">
         <f>'Table 4.1'!H7</f>
-        <v>134</v>
+        <v>134.25</v>
       </c>
       <c r="G25" s="18">
         <f t="shared" si="4"/>
-        <v>28.644927637801345</v>
+        <v>28.894927637801345</v>
       </c>
       <c r="H25" s="21">
         <f t="shared" si="5"/>
-        <v>820.5318793748753</v>
+        <v>834.916843193776</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -6439,15 +6431,15 @@
       </c>
       <c r="F27" s="18">
         <f>'Table 4.1'!H9</f>
-        <v>8</v>
+        <v>7.66</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="4"/>
-        <v>3.7906417080988328</v>
+        <v>3.450641708098833</v>
       </c>
       <c r="H27" s="21">
         <f t="shared" si="5"/>
-        <v>14.368964559178437</v>
+        <v>11.906928197671231</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -6493,15 +6485,15 @@
       </c>
       <c r="F29" s="18">
         <f>'Table 4.1'!H11</f>
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G29" s="18">
         <f t="shared" si="4"/>
-        <v>17.196951402446672</v>
+        <v>14.196951402446672</v>
       </c>
       <c r="H29" s="21">
         <f t="shared" si="5"/>
-        <v>295.73513753811255</v>
+        <v>201.55342912343252</v>
       </c>
     </row>
     <row r="30" spans="2:18">
@@ -6520,15 +6512,15 @@
       </c>
       <c r="F30" s="18">
         <f>'Table 4.1'!H12</f>
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G30" s="18">
         <f t="shared" si="4"/>
-        <v>31.512844461542784</v>
+        <v>18.512844461542784</v>
       </c>
       <c r="H30" s="21">
         <f t="shared" si="5"/>
-        <v>993.05936605738771</v>
+        <v>342.72541005727533</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -6547,7 +6539,7 @@
       </c>
       <c r="H32" s="25">
         <f>SUM(H21:H30)</f>
-        <v>5585.6643003063709</v>
+        <v>4879.615512775973</v>
       </c>
     </row>
     <row r="33" spans="2:10">
@@ -6560,7 +6552,7 @@
       </c>
       <c r="H33" s="25">
         <f>SQRT(H32/(10-3))</f>
-        <v>28.248044939445101</v>
+        <v>26.40242281300274</v>
       </c>
     </row>
     <row r="34" spans="2:10">
@@ -6583,11 +6575,11 @@
       </c>
       <c r="G35" s="25">
         <f>-2*H33</f>
-        <v>-56.496089878890203</v>
+        <v>-52.804845626005481</v>
       </c>
       <c r="H35" s="25">
         <f>2*H33</f>
-        <v>56.496089878890203</v>
+        <v>52.804845626005481</v>
       </c>
     </row>
   </sheetData>

--- a/Lab4/Lab 4 SAWA tables.xlsx
+++ b/Lab4/Lab 4 SAWA tables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A5F9D0-B633-49FA-AF74-9884D0D372B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EB93D2-8ED6-4DA6-A29F-BA7C2947B112}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 4.1" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>Leftmost urn.</t>
   </si>
@@ -292,11 +292,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R output:</t>
+    <t>Do the scatter plot seems to fit the line of curve?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fill in the output from R to check the difference!</t>
+    <t>Basis for model choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chosen Model's prediction formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 4.3:Predicting the 11th distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chosen Model(Linear or Quadratic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True Distance for the 11th Object, (supplied by instructor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prediction Error for the 11th Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Does your prediction error lie within the 95% Prediction interval?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chosen Model's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Guess_distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for the 11th Object , x = </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Chosen Model's predict y (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Predict_Distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -310,7 +382,7 @@
     <numFmt numFmtId="178" formatCode="0.00000000000000_ "/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,7 +424,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="8"/>
+      <color theme="4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -487,11 +565,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -530,7 +607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -538,16 +614,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -565,9 +632,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -653,7 +726,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -727,34 +800,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>121</c:v>
+                  <c:v>69.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
+                  <c:v>45.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>11.19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101</c:v>
+                  <c:v>57.589999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>201</c:v>
+                  <c:v>115.58999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>461</c:v>
+                  <c:v>266.38999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>4.2299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81</c:v>
+                  <c:v>45.99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>161</c:v>
+                  <c:v>92.39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>341</c:v>
+                  <c:v>196.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,7 +1219,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1639,7 +1712,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1899,34 +1972,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>121</c:v>
+                  <c:v>69.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
+                  <c:v>45.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>11.19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101</c:v>
+                  <c:v>57.589999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>201</c:v>
+                  <c:v>115.58999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>461</c:v>
+                  <c:v>266.38999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>4.2299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81</c:v>
+                  <c:v>45.99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>161</c:v>
+                  <c:v>92.39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>341</c:v>
+                  <c:v>196.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2247,6 +2320,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="166031567"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2297,7 +2371,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5503,294 +5577,296 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="2.34765625" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="24.34765625" customWidth="1"/>
-    <col min="5" max="5" width="29.6484375" customWidth="1"/>
-    <col min="6" max="6" width="20.3984375" customWidth="1"/>
-    <col min="7" max="7" width="21.6484375" customWidth="1"/>
-    <col min="8" max="8" width="39.34765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="36.700000000000003" customHeight="1">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:8" ht="36.75" customHeight="1">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="35.5" customHeight="1">
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>42</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>39</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>41</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>40.01</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f t="shared" ref="H3:H12" si="0">MEDIAN(E3:G3)</f>
         <v>40.01</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.3">
-      <c r="B4" s="4">
+    <row r="4" spans="2:8" ht="15.5">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>34</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>27</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>29</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>27.09</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f t="shared" si="0"/>
         <v>27.09</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.3">
-      <c r="B5" s="4">
+    <row r="5" spans="2:8" ht="15.5">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>17</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>16</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>16</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>16.04</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.3">
-      <c r="B6" s="4">
+    <row r="6" spans="2:8" ht="15.5">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>88</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>83</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>83</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>82.05</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.3">
-      <c r="B7" s="4">
+    <row r="7" spans="2:8" ht="15.5">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>120</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>130</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>138.4</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>137.06</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>137.06</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.3">
-      <c r="B8" s="4">
+    <row r="8" spans="2:8" ht="15.5">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>130</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>255</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>277.5</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>260.02</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>260.02</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.3">
-      <c r="B9" s="4">
+    <row r="9" spans="2:8" ht="15.5">
+      <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>4</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>8</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>7.08</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>7.01</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
         <v>7.08</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.3">
-      <c r="B10" s="4">
+    <row r="10" spans="2:8" ht="15.5">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>23</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>43</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>44.2</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>45</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
         <v>44.2</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.3">
-      <c r="B11" s="4">
+    <row r="11" spans="2:8" ht="15.5">
+      <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>89</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>94</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>105.6</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>103</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.3">
-      <c r="B12" s="4">
+    <row r="12" spans="2:8" ht="15.5">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>170</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>186</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>199.7</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>199</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.3">
-      <c r="B13" s="4">
+    <row r="13" spans="2:8" ht="15.5">
+      <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="15">
+        <v>130</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:8" ht="15.3">
+    <row r="14" spans="2:8" ht="15.5">
       <c r="F14" s="1"/>
     </row>
   </sheetData>
@@ -5801,67 +5877,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:R35"/>
+  <dimension ref="B2:R45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="1.84765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.84765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.6484375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.6484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.6484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.3984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.6484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.4140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.58203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="3" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.1484375" style="2"/>
+    <col min="10" max="10" width="9.1640625" style="2"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
     <col min="12" max="12" width="7" style="2" customWidth="1"/>
-    <col min="13" max="13" width="2.3984375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.59765625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.84765625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.3984375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.1484375" style="2"/>
-    <col min="18" max="18" width="17.3984375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.1484375" style="2"/>
+    <col min="13" max="13" width="2.4140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.58203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="2.4140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" style="2"/>
+    <col min="18" max="18" width="17.4140625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="J2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -5870,46 +5938,40 @@
       <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="26" t="s">
-        <v>19</v>
-      </c>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>60</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <f>$L$4+$N$4*D4</f>
-        <v>121</v>
-      </c>
-      <c r="F4" s="18">
+        <v>69.19</v>
+      </c>
+      <c r="F4" s="17">
         <f>'Table 4.1'!H3</f>
         <v>40.01</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <f>F4-E4</f>
-        <v>-80.990000000000009</v>
-      </c>
-      <c r="H4" s="21">
+        <v>-29.18</v>
+      </c>
+      <c r="H4" s="19">
         <f>G4^2</f>
-        <v>6559.3801000000012</v>
+        <v>851.47239999999999</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -5917,406 +5979,395 @@
       <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="17">
-        <v>1</v>
+      <c r="L4" s="16">
+        <v>-0.41</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="17">
-        <v>2</v>
-      </c>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="16">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>40</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <f t="shared" ref="E5:E13" si="0">$L$4+$N$4*D5</f>
-        <v>81</v>
-      </c>
-      <c r="F5" s="18">
+        <v>45.99</v>
+      </c>
+      <c r="F5" s="17">
         <f>'Table 4.1'!H4</f>
         <v>27.09</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <f t="shared" ref="G5:G13" si="1">F5-E5</f>
-        <v>-53.91</v>
-      </c>
-      <c r="H5" s="21">
+        <v>-18.900000000000002</v>
+      </c>
+      <c r="H5" s="19">
         <f t="shared" ref="H5:H13" si="2">G5^2</f>
-        <v>2906.2880999999998</v>
+        <v>357.21000000000009</v>
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>10</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="F6" s="18">
+        <v>11.19</v>
+      </c>
+      <c r="F6" s="17">
         <f>'Table 4.1'!H5</f>
         <v>16</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="H6" s="21">
+        <v>4.8100000000000005</v>
+      </c>
+      <c r="H6" s="19">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>23.136100000000006</v>
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>50</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="F7" s="18">
+        <v>57.589999999999996</v>
+      </c>
+      <c r="F7" s="17">
         <f>'Table 4.1'!H6</f>
         <v>83</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <f t="shared" si="1"/>
-        <v>-18</v>
-      </c>
-      <c r="H7" s="21">
+        <v>25.410000000000004</v>
+      </c>
+      <c r="H7" s="19">
         <f t="shared" si="2"/>
-        <v>324</v>
+        <v>645.66810000000021</v>
       </c>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>100</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
-        <v>201</v>
-      </c>
-      <c r="F8" s="18">
+        <v>115.58999999999999</v>
+      </c>
+      <c r="F8" s="17">
         <f>'Table 4.1'!H7</f>
         <v>137.06</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <f t="shared" si="1"/>
-        <v>-63.94</v>
-      </c>
-      <c r="H8" s="21">
+        <v>21.470000000000013</v>
+      </c>
+      <c r="H8" s="19">
         <f t="shared" si="2"/>
-        <v>4088.3235999999997</v>
+        <v>460.96090000000055</v>
       </c>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>230</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
-        <v>461</v>
-      </c>
-      <c r="F9" s="18">
+        <v>266.38999999999993</v>
+      </c>
+      <c r="F9" s="17">
         <f>'Table 4.1'!H8</f>
         <v>260.02</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <f t="shared" si="1"/>
-        <v>-200.98000000000002</v>
-      </c>
-      <c r="H9" s="21">
+        <v>-6.3699999999999477</v>
+      </c>
+      <c r="H9" s="19">
         <f t="shared" si="2"/>
-        <v>40392.960400000011</v>
+        <v>40.576899999999334</v>
       </c>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>4</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F10" s="18">
+        <v>4.2299999999999995</v>
+      </c>
+      <c r="F10" s="17">
         <f>'Table 4.1'!H9</f>
         <v>7.08</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <f t="shared" si="1"/>
-        <v>-1.92</v>
-      </c>
-      <c r="H10" s="21">
+        <v>2.8500000000000005</v>
+      </c>
+      <c r="H10" s="19">
         <f t="shared" si="2"/>
-        <v>3.6863999999999999</v>
+        <v>8.1225000000000023</v>
       </c>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>40</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="F11" s="18">
+        <v>45.99</v>
+      </c>
+      <c r="F11" s="17">
         <f>'Table 4.1'!H10</f>
         <v>44.2</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <f t="shared" si="1"/>
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="H11" s="21">
+        <v>-1.7899999999999991</v>
+      </c>
+      <c r="H11" s="19">
         <f t="shared" si="2"/>
-        <v>1354.2399999999998</v>
+        <v>3.2040999999999968</v>
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>80</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <f t="shared" si="0"/>
-        <v>161</v>
-      </c>
-      <c r="F12" s="18">
+        <v>92.39</v>
+      </c>
+      <c r="F12" s="17">
         <f>'Table 4.1'!H11</f>
         <v>103</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <f t="shared" si="1"/>
-        <v>-58</v>
-      </c>
-      <c r="H12" s="21">
+        <v>10.61</v>
+      </c>
+      <c r="H12" s="19">
         <f t="shared" si="2"/>
-        <v>3364</v>
+        <v>112.57209999999999</v>
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>170</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <f t="shared" si="0"/>
-        <v>341</v>
-      </c>
-      <c r="F13" s="18">
+        <v>196.79</v>
+      </c>
+      <c r="F13" s="17">
         <f>'Table 4.1'!H12</f>
         <v>199</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <f t="shared" si="1"/>
-        <v>-142</v>
-      </c>
-      <c r="H13" s="21">
+        <v>2.210000000000008</v>
+      </c>
+      <c r="H13" s="19">
         <f t="shared" si="2"/>
-        <v>20164</v>
+        <v>4.8841000000000347</v>
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="11">
+        <v>130</v>
+      </c>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="23">
         <f>SUM(H4:H13)</f>
-        <v>79181.878600000011</v>
+        <v>2507.8071999999997</v>
       </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="G16" s="24" t="s">
+      <c r="C16" s="27"/>
+      <c r="G16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="23">
         <f>SQRT(H15/(10-2))</f>
-        <v>99.487360126802045</v>
+        <v>17.705250633639729</v>
       </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="30" t="str">
+      <c r="G17" s="25" t="str">
         <f>K4&amp;ROUND(L4,2)&amp;M4&amp;ROUND(N4,2)&amp;O4</f>
-        <v>Predict_Distance =1+2*Gussed_Distance</v>
-      </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+        <v>Predict_Distance =-0.41+1.16*Gussed_Distance</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="23">
         <f>-2*H16</f>
-        <v>-198.97472025360409</v>
-      </c>
-      <c r="H18" s="25">
+        <v>-35.410501267279457</v>
+      </c>
+      <c r="H18" s="23">
         <f>2*H16</f>
-        <v>198.97472025360409</v>
+        <v>35.410501267279457</v>
       </c>
     </row>
     <row r="19" spans="2:18">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="29"/>
-      <c r="O20" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="26" t="s">
-        <v>28</v>
-      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>60</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <f>$L$21+$N$21*D21+$Q$21*D21^2</f>
         <v>65.451024832908033</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <f>'Table 4.1'!H3</f>
         <v>40.01</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <f>F21-E21</f>
         <v>-25.441024832908035</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="19">
         <f>G21^2</f>
         <v>647.2457445486433</v>
       </c>
@@ -6326,340 +6377,423 @@
       <c r="K21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="16">
         <v>-0.40504646102789421</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="16">
         <v>1.1576011882322654</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="13" t="s">
         <v>19</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="27">
+      <c r="Q21" s="24">
         <v>-1E-3</v>
       </c>
-      <c r="R21" s="14" t="s">
+      <c r="R21" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>2</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>40</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <f t="shared" ref="E22:E30" si="3">$L$21+$N$21*D22+$Q$21*D22^2</f>
         <v>44.299001068262719</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="17">
         <f>'Table 4.1'!H4</f>
         <v>27.09</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="17">
         <f t="shared" ref="G22:G30" si="4">F22-E22</f>
         <v>-17.209001068262719</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="19">
         <f t="shared" ref="H22:H30" si="5">G22^2</f>
         <v>296.14971776746739</v>
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>3</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>10</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="17">
         <f t="shared" si="3"/>
         <v>11.07096542129476</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="17">
         <f>'Table 4.1'!H5</f>
         <v>16</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="17">
         <f t="shared" si="4"/>
         <v>4.9290345787052399</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="19">
         <f t="shared" si="5"/>
         <v>24.295381878071943</v>
       </c>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>4</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>50</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="17">
         <f t="shared" si="3"/>
         <v>54.975012950585381</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="17">
         <f>'Table 4.1'!H6</f>
         <v>83</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="17">
         <f t="shared" si="4"/>
         <v>28.024987049414619</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="19">
         <f t="shared" si="5"/>
         <v>785.39989911985708</v>
       </c>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>5</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>100</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <f t="shared" si="3"/>
         <v>105.35507236219865</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="17">
         <f>'Table 4.1'!H7</f>
         <v>137.06</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="17">
         <f t="shared" si="4"/>
         <v>31.704927637801347</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="19">
         <f t="shared" si="5"/>
         <v>1005.2024365182198</v>
       </c>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>6</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>230</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <f t="shared" si="3"/>
         <v>212.94322683239315</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="17">
         <f>'Table 4.1'!H8</f>
         <v>260.02</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="17">
         <f t="shared" si="4"/>
         <v>47.076773167606831</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="19">
         <f t="shared" si="5"/>
         <v>2216.2225718743066</v>
       </c>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>7</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>4</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="17">
         <f t="shared" si="3"/>
         <v>4.2093582919011672</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="17">
         <f>'Table 4.1'!H9</f>
         <v>7.08</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="17">
         <f t="shared" si="4"/>
         <v>2.8706417080988329</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="19">
         <f t="shared" si="5"/>
         <v>8.240583816276585</v>
       </c>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>8</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <v>40</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="17">
         <f t="shared" si="3"/>
         <v>44.299001068262719</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="17">
         <f>'Table 4.1'!H10</f>
         <v>44.2</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="17">
         <f t="shared" si="4"/>
         <v>-9.9001068262715819E-2</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="19">
         <f t="shared" si="5"/>
         <v>9.801211517158917E-3</v>
       </c>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>9</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>80</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="17">
         <f t="shared" si="3"/>
         <v>85.803048597553328</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="17">
         <f>'Table 4.1'!H11</f>
         <v>103</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="17">
         <f t="shared" si="4"/>
         <v>17.196951402446672</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="19">
         <f t="shared" si="5"/>
         <v>295.73513753811255</v>
       </c>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>10</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>170</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="17">
         <f t="shared" si="3"/>
         <v>167.48715553845722</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="17">
         <f>'Table 4.1'!H12</f>
         <v>199</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="17">
         <f t="shared" si="4"/>
         <v>31.512844461542784</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="19">
         <f t="shared" si="5"/>
         <v>993.05936605738771</v>
       </c>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>11</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="H31" s="13"/>
+      <c r="D31" s="11">
+        <v>130</v>
+      </c>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="23">
         <f>SUM(H21:H30)</f>
         <v>6271.5606403298589</v>
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="G33" s="24" t="s">
+      <c r="C33" s="28"/>
+      <c r="G33" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="23">
         <f>SQRT(H32/(10-3))</f>
         <v>29.932210648945343</v>
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
       <c r="F34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="30" t="str">
+      <c r="G34" s="25" t="str">
         <f>K21&amp;ROUND(L21,2)&amp;M21&amp;ROUND(N21,2)&amp;O21&amp;P21&amp;ROUND(Q21,5)&amp;R21</f>
         <v>Predict_Distance =-0.41+1.16*Gussed_Distance+-0.001*Gussed_Distance^2</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="2:10">
       <c r="F35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="23">
         <f>-2*H33</f>
         <v>-59.864421297890686</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="23">
         <f>2*H33</f>
         <v>59.864421297890686</v>
       </c>
     </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="3">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="3">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="3">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="3">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="3">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J20:O20"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="B16:C18"/>
     <mergeCell ref="B33:C34"/>
-    <mergeCell ref="J2:O2"/>
     <mergeCell ref="J19:O19"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C19:H19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab4/Lab 4 SAWA tables.xlsx
+++ b/Lab4/Lab 4 SAWA tables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EB93D2-8ED6-4DA6-A29F-BA7C2947B112}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63C4026-D935-46E3-AFD2-984517C302A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 4.1" sheetId="2" r:id="rId1"/>
@@ -617,6 +617,15 @@
     <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,89 +638,12 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5319,7 +5251,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5577,18 +5509,18 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.34765625" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.34765625" customWidth="1"/>
+    <col min="5" max="5" width="29.6484375" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" customWidth="1"/>
+    <col min="7" max="7" width="21.6484375" customWidth="1"/>
+    <col min="8" max="8" width="39.34765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="36.75" customHeight="1">
@@ -5638,7 +5570,7 @@
         <v>40.01</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.5">
+    <row r="4" spans="2:8" ht="15.3">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -5662,7 +5594,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.5">
+    <row r="5" spans="2:8" ht="15.3">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -5686,7 +5618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.5">
+    <row r="6" spans="2:8" ht="15.3">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -5710,7 +5642,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.5">
+    <row r="7" spans="2:8" ht="15.3">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -5734,7 +5666,7 @@
         <v>137.06</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.5">
+    <row r="8" spans="2:8" ht="15.3">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -5758,7 +5690,7 @@
         <v>260.02</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.5">
+    <row r="9" spans="2:8" ht="15.3">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -5782,7 +5714,7 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.5">
+    <row r="10" spans="2:8" ht="15.3">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -5806,7 +5738,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.5">
+    <row r="11" spans="2:8" ht="15.3">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -5830,7 +5762,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.5">
+    <row r="12" spans="2:8" ht="15.3">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -5854,7 +5786,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.5">
+    <row r="13" spans="2:8" ht="15.3">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -5866,7 +5798,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:8" ht="15.5">
+    <row r="14" spans="2:8" ht="15.3">
       <c r="F14" s="1"/>
     </row>
   </sheetData>
@@ -5879,42 +5811,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:R45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.4140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.58203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.84765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.84765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.6484375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.6484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.6484375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.6484375" style="2" customWidth="1"/>
     <col min="9" max="9" width="3" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="2"/>
+    <col min="10" max="10" width="9.1484375" style="2"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
     <col min="12" max="12" width="7" style="2" customWidth="1"/>
-    <col min="13" max="13" width="2.4140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.58203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.4140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="2"/>
-    <col min="18" max="18" width="17.4140625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="2"/>
+    <col min="13" max="13" width="2.3984375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.59765625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.84765625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="2.3984375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.1484375" style="2"/>
+    <col min="18" max="18" width="17.3984375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.1484375" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="3" t="s">
@@ -5938,14 +5870,14 @@
       <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="3">
@@ -6257,10 +6189,10 @@
       </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="30"/>
       <c r="G16" s="22" t="s">
         <v>32</v>
       </c>
@@ -6270,22 +6202,22 @@
       </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="25" t="str">
+      <c r="G17" s="28" t="str">
         <f>K4&amp;ROUND(L4,2)&amp;M4&amp;ROUND(N4,2)&amp;O4</f>
         <v>Predict_Distance =-0.41+1.16*Gussed_Distance</v>
       </c>
-      <c r="H17" s="25"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
@@ -6299,20 +6231,20 @@
       </c>
     </row>
     <row r="19" spans="2:18">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="3" t="s">
@@ -6336,14 +6268,14 @@
       <c r="H20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="3">
@@ -6664,10 +6596,10 @@
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="28"/>
+      <c r="C33" s="31"/>
       <c r="G33" s="22" t="s">
         <v>32</v>
       </c>
@@ -6677,16 +6609,16 @@
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="F34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="25" t="str">
+      <c r="G34" s="28" t="str">
         <f>K21&amp;ROUND(L21,2)&amp;M21&amp;ROUND(N21,2)&amp;O21&amp;P21&amp;ROUND(Q21,5)&amp;R21</f>
         <v>Predict_Distance =-0.41+1.16*Gussed_Distance+-0.001*Gussed_Distance^2</v>
       </c>
-      <c r="H34" s="25"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
     </row>
@@ -6704,11 +6636,11 @@
       </c>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="3">
@@ -6760,7 +6692,7 @@
       <c r="C43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="25">
         <v>100</v>
       </c>
     </row>

--- a/Lab4/Lab 4 SAWA tables.xlsx
+++ b/Lab4/Lab 4 SAWA tables.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63C4026-D935-46E3-AFD2-984517C302A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="8565"/>
   </bookViews>
   <sheets>
     <sheet name="Table 4.1" sheetId="2" r:id="rId1"/>
@@ -43,7 +42,7 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,18 +58,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="H15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -81,13 +80,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="H16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -98,13 +97,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="H32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -116,13 +115,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="H33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -375,24 +374,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00000000000000_ "/>
-    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0_ "/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000_ "/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -592,7 +591,7 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,18 +602,18 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -640,7 +639,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,7 +657,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -771,10 +770,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40.01</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.09</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -783,22 +782,22 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137.06</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260.02</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.08</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.2</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>199</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -927,7 +926,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -965,7 +964,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1845016287"/>
@@ -1058,7 +1057,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1096,7 +1095,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1704755311"/>
@@ -1137,7 +1136,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1151,7 +1150,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1264,10 +1263,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40.01</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.09</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -1276,22 +1275,22 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137.06</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260.02</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.08</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.2</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>199</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1420,7 +1419,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1458,7 +1457,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1845016287"/>
@@ -1551,7 +1550,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1589,7 +1588,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1704755311"/>
@@ -1630,7 +1629,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1644,7 +1643,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1755,10 +1754,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40.01</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.09</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -1767,22 +1766,22 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137.06</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260.02</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.08</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.2</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>199</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,7 +2029,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2068,7 +2067,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="160160047"/>
@@ -2147,7 +2146,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2185,7 +2184,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2080999967"/>
@@ -2233,7 +2232,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="166031151"/>
@@ -2289,7 +2288,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2303,7 +2302,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2402,10 +2401,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40.01</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.09</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -2414,22 +2413,22 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137.06</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260.02</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.08</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.2</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>199</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,7 +2660,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2699,7 +2698,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="166033647"/>
@@ -2778,7 +2777,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2816,7 +2815,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1214770303"/>
@@ -2857,7 +2856,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5505,22 +5504,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.34765625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="24.34765625" customWidth="1"/>
-    <col min="5" max="5" width="29.6484375" customWidth="1"/>
-    <col min="6" max="6" width="20.3984375" customWidth="1"/>
-    <col min="7" max="7" width="21.6484375" customWidth="1"/>
-    <col min="8" max="8" width="39.34765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="36.75" customHeight="1">
@@ -5546,16 +5545,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="35.5" customHeight="1">
+    <row r="3" spans="2:8" ht="35.450000000000003" customHeight="1">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15">
-        <v>42</v>
-      </c>
+      <c r="D3" s="15"/>
       <c r="E3" s="7">
         <v>39</v>
       </c>
@@ -5563,47 +5560,43 @@
         <v>41</v>
       </c>
       <c r="G3" s="5">
-        <v>40.01</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H12" si="0">MEDIAN(E3:G3)</f>
-        <v>40.01</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.3">
+    <row r="4" spans="2:8" ht="15.75">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15">
-        <v>34</v>
-      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="7">
         <v>27</v>
       </c>
       <c r="F4" s="6">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G4" s="5">
-        <v>27.09</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>27.09</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.3">
+    <row r="5" spans="2:8" ht="15.75">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="15">
-        <v>17</v>
-      </c>
+      <c r="D5" s="15"/>
       <c r="E5" s="7">
         <v>16</v>
       </c>
@@ -5611,194 +5604,178 @@
         <v>16</v>
       </c>
       <c r="G5" s="5">
-        <v>16.04</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.3">
+    <row r="6" spans="2:8" ht="15.75">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15">
-        <v>88</v>
-      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="7">
         <v>83</v>
       </c>
       <c r="F6" s="6">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" s="5">
-        <v>82.05</v>
+        <v>20</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.3">
+    <row r="7" spans="2:8" ht="15.75">
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="15">
-        <v>120</v>
-      </c>
+      <c r="D7" s="15"/>
       <c r="E7" s="7">
         <v>130</v>
       </c>
       <c r="F7" s="6">
-        <v>138.4</v>
+        <v>143</v>
       </c>
       <c r="G7" s="5">
-        <v>137.06</v>
+        <v>127</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>137.06</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.3">
+    <row r="8" spans="2:8" ht="15.75">
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15">
-        <v>130</v>
-      </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="7">
         <v>255</v>
       </c>
       <c r="F8" s="6">
-        <v>277.5</v>
+        <v>277</v>
       </c>
       <c r="G8" s="5">
-        <v>260.02</v>
+        <v>261</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>260.02</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.3">
+    <row r="9" spans="2:8" ht="15.75">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="15">
-        <v>4</v>
-      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="7">
         <v>8</v>
       </c>
       <c r="F9" s="6">
-        <v>7.08</v>
+        <v>9</v>
       </c>
       <c r="G9" s="5">
-        <v>7.01</v>
+        <v>7</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>7.08</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.3">
+    <row r="10" spans="2:8" ht="15.75">
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="15">
-        <v>23</v>
-      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="7">
         <v>43</v>
       </c>
       <c r="F10" s="6">
-        <v>44.2</v>
+        <v>42</v>
       </c>
       <c r="G10" s="5">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>44.2</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.3">
+    <row r="11" spans="2:8" ht="15.75">
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="15">
-        <v>89</v>
-      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="7">
         <v>94</v>
       </c>
       <c r="F11" s="6">
-        <v>105.6</v>
+        <v>107</v>
       </c>
       <c r="G11" s="5">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.3">
+    <row r="12" spans="2:8" ht="15.75">
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="15">
-        <v>170</v>
-      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="7">
         <v>186</v>
       </c>
       <c r="F12" s="6">
-        <v>199.7</v>
+        <v>196</v>
       </c>
       <c r="G12" s="5">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.3">
+    <row r="13" spans="2:8" ht="15.75">
       <c r="B13" s="3">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="15">
-        <v>130</v>
-      </c>
+      <c r="D13" s="15"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:8" ht="15.3">
+    <row r="14" spans="2:8" ht="15.75">
       <c r="F14" s="1"/>
     </row>
   </sheetData>
@@ -5808,34 +5785,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="1.84765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.84765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.6484375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.6484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.6484375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.6484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="3" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.1484375" style="2"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
     <col min="12" max="12" width="7" style="2" customWidth="1"/>
-    <col min="13" max="13" width="2.3984375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.59765625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.84765625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.3984375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.1484375" style="2"/>
-    <col min="18" max="18" width="17.3984375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.1484375" style="2"/>
+    <col min="13" max="13" width="2.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="17.42578125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
@@ -5895,15 +5872,15 @@
       </c>
       <c r="F4" s="17">
         <f>'Table 4.1'!H3</f>
-        <v>40.01</v>
+        <v>39</v>
       </c>
       <c r="G4" s="17">
         <f>F4-E4</f>
-        <v>-29.18</v>
+        <v>-30.189999999999998</v>
       </c>
       <c r="H4" s="19">
         <f>G4^2</f>
-        <v>851.47239999999999</v>
+        <v>911.4360999999999</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -5940,15 +5917,15 @@
       </c>
       <c r="F5" s="17">
         <f>'Table 4.1'!H4</f>
-        <v>27.09</v>
+        <v>25</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" ref="G5:G13" si="1">F5-E5</f>
-        <v>-18.900000000000002</v>
+        <v>-20.990000000000002</v>
       </c>
       <c r="H5" s="19">
         <f t="shared" ref="H5:H13" si="2">G5^2</f>
-        <v>357.21000000000009</v>
+        <v>440.58010000000007</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -6021,15 +5998,15 @@
       </c>
       <c r="F8" s="17">
         <f>'Table 4.1'!H7</f>
-        <v>137.06</v>
+        <v>130</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="1"/>
-        <v>21.470000000000013</v>
+        <v>14.410000000000011</v>
       </c>
       <c r="H8" s="19">
         <f t="shared" si="2"/>
-        <v>460.96090000000055</v>
+        <v>207.64810000000031</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -6048,15 +6025,15 @@
       </c>
       <c r="F9" s="17">
         <f>'Table 4.1'!H8</f>
-        <v>260.02</v>
+        <v>261</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="1"/>
-        <v>-6.3699999999999477</v>
+        <v>-5.3899999999999295</v>
       </c>
       <c r="H9" s="19">
         <f t="shared" si="2"/>
-        <v>40.576899999999334</v>
+        <v>29.052099999999239</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -6075,15 +6052,15 @@
       </c>
       <c r="F10" s="17">
         <f>'Table 4.1'!H9</f>
-        <v>7.08</v>
+        <v>8</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" si="1"/>
-        <v>2.8500000000000005</v>
+        <v>3.7700000000000005</v>
       </c>
       <c r="H10" s="19">
         <f t="shared" si="2"/>
-        <v>8.1225000000000023</v>
+        <v>14.212900000000003</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -6102,15 +6079,15 @@
       </c>
       <c r="F11" s="17">
         <f>'Table 4.1'!H10</f>
-        <v>44.2</v>
+        <v>42</v>
       </c>
       <c r="G11" s="17">
         <f t="shared" si="1"/>
-        <v>-1.7899999999999991</v>
+        <v>-3.990000000000002</v>
       </c>
       <c r="H11" s="19">
         <f t="shared" si="2"/>
-        <v>3.2040999999999968</v>
+        <v>15.920100000000016</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -6129,15 +6106,15 @@
       </c>
       <c r="F12" s="17">
         <f>'Table 4.1'!H11</f>
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G12" s="17">
         <f t="shared" si="1"/>
-        <v>10.61</v>
+        <v>14.61</v>
       </c>
       <c r="H12" s="19">
         <f t="shared" si="2"/>
-        <v>112.57209999999999</v>
+        <v>213.45209999999997</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -6156,15 +6133,15 @@
       </c>
       <c r="F13" s="17">
         <f>'Table 4.1'!H12</f>
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G13" s="17">
         <f t="shared" si="1"/>
-        <v>2.210000000000008</v>
+        <v>-0.78999999999999204</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="2"/>
-        <v>4.8841000000000347</v>
+        <v>0.62409999999998744</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -6185,7 +6162,7 @@
       </c>
       <c r="H15" s="23">
         <f>SUM(H4:H13)</f>
-        <v>2507.8071999999997</v>
+        <v>2501.7297999999996</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -6198,7 +6175,7 @@
       </c>
       <c r="H16" s="23">
         <f>SQRT(H15/(10-2))</f>
-        <v>17.705250633639729</v>
+        <v>17.683784238674708</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -6223,11 +6200,11 @@
       </c>
       <c r="G18" s="23">
         <f>-2*H16</f>
-        <v>-35.410501267279457</v>
+        <v>-35.367568477349415</v>
       </c>
       <c r="H18" s="23">
         <f>2*H16</f>
-        <v>35.410501267279457</v>
+        <v>35.367568477349415</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -6293,15 +6270,15 @@
       </c>
       <c r="F21" s="17">
         <f>'Table 4.1'!H3</f>
-        <v>40.01</v>
+        <v>39</v>
       </c>
       <c r="G21" s="17">
         <f>F21-E21</f>
-        <v>-25.441024832908035</v>
+        <v>-26.451024832908033</v>
       </c>
       <c r="H21" s="19">
         <f>G21^2</f>
-        <v>647.2457445486433</v>
+        <v>699.65671471111739</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -6347,15 +6324,15 @@
       </c>
       <c r="F22" s="17">
         <f>'Table 4.1'!H4</f>
-        <v>27.09</v>
+        <v>25</v>
       </c>
       <c r="G22" s="17">
         <f t="shared" ref="G22:G30" si="4">F22-E22</f>
-        <v>-17.209001068262719</v>
+        <v>-19.299001068262719</v>
       </c>
       <c r="H22" s="19">
         <f t="shared" ref="H22:H30" si="5">G22^2</f>
-        <v>296.14971776746739</v>
+        <v>372.45144223280556</v>
       </c>
     </row>
     <row r="23" spans="2:18">
@@ -6428,15 +6405,15 @@
       </c>
       <c r="F25" s="17">
         <f>'Table 4.1'!H7</f>
-        <v>137.06</v>
+        <v>130</v>
       </c>
       <c r="G25" s="17">
         <f t="shared" si="4"/>
-        <v>31.704927637801347</v>
+        <v>24.644927637801345</v>
       </c>
       <c r="H25" s="19">
         <f t="shared" si="5"/>
-        <v>1005.2024365182198</v>
+        <v>607.37245827246454</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -6455,15 +6432,15 @@
       </c>
       <c r="F26" s="17">
         <f>'Table 4.1'!H8</f>
-        <v>260.02</v>
+        <v>261</v>
       </c>
       <c r="G26" s="17">
         <f t="shared" si="4"/>
-        <v>47.076773167606831</v>
+        <v>48.056773167606849</v>
       </c>
       <c r="H26" s="19">
         <f t="shared" si="5"/>
-        <v>2216.2225718743066</v>
+        <v>2309.4534472828177</v>
       </c>
     </row>
     <row r="27" spans="2:18">
@@ -6482,15 +6459,15 @@
       </c>
       <c r="F27" s="17">
         <f>'Table 4.1'!H9</f>
-        <v>7.08</v>
+        <v>8</v>
       </c>
       <c r="G27" s="17">
         <f t="shared" si="4"/>
-        <v>2.8706417080988329</v>
+        <v>3.7906417080988328</v>
       </c>
       <c r="H27" s="19">
         <f t="shared" si="5"/>
-        <v>8.240583816276585</v>
+        <v>14.368964559178437</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -6509,15 +6486,15 @@
       </c>
       <c r="F28" s="17">
         <f>'Table 4.1'!H10</f>
-        <v>44.2</v>
+        <v>42</v>
       </c>
       <c r="G28" s="17">
         <f t="shared" si="4"/>
-        <v>-9.9001068262715819E-2</v>
+        <v>-2.2990010682627187</v>
       </c>
       <c r="H28" s="19">
         <f t="shared" si="5"/>
-        <v>9.801211517158917E-3</v>
+        <v>5.2854059118731218</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -6536,15 +6513,15 @@
       </c>
       <c r="F29" s="17">
         <f>'Table 4.1'!H11</f>
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G29" s="17">
         <f t="shared" si="4"/>
-        <v>17.196951402446672</v>
+        <v>21.196951402446672</v>
       </c>
       <c r="H29" s="19">
         <f t="shared" si="5"/>
-        <v>295.73513753811255</v>
+        <v>449.31074875768593</v>
       </c>
     </row>
     <row r="30" spans="2:18">
@@ -6563,15 +6540,15 @@
       </c>
       <c r="F30" s="17">
         <f>'Table 4.1'!H12</f>
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G30" s="17">
         <f t="shared" si="4"/>
-        <v>31.512844461542784</v>
+        <v>28.512844461542784</v>
       </c>
       <c r="H30" s="19">
         <f t="shared" si="5"/>
-        <v>993.05936605738771</v>
+        <v>812.982299288131</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -6592,7 +6569,7 @@
       </c>
       <c r="H32" s="23">
         <f>SUM(H21:H30)</f>
-        <v>6271.5606403298589</v>
+        <v>6080.5767620140032</v>
       </c>
     </row>
     <row r="33" spans="2:10">
@@ -6605,7 +6582,7 @@
       </c>
       <c r="H33" s="23">
         <f>SQRT(H32/(10-3))</f>
-        <v>29.932210648945343</v>
+        <v>29.472933738344704</v>
       </c>
     </row>
     <row r="34" spans="2:10">
@@ -6628,11 +6605,11 @@
       </c>
       <c r="G35" s="23">
         <f>-2*H33</f>
-        <v>-59.864421297890686</v>
+        <v>-58.945867476689408</v>
       </c>
       <c r="H35" s="23">
         <f>2*H33</f>
-        <v>59.864421297890686</v>
+        <v>58.945867476689408</v>
       </c>
     </row>
     <row r="37" spans="2:10">

--- a/Lab4/Lab 4 SAWA tables.xlsx
+++ b/Lab4/Lab 4 SAWA tables.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="8565"/>
@@ -26,7 +26,7 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Table 4.2'!$H$32</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Table 4.2'!$H$33</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>Leftmost urn.</t>
   </si>
@@ -369,6 +369,9 @@
       <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Gussed_Distance</t>
   </si>
 </sst>
 </file>
@@ -731,34 +734,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>69.19</c:v>
+                  <c:v>44.813000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.99</c:v>
+                  <c:v>31.590400000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.19</c:v>
+                  <c:v>23.034599999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.589999999999996</c:v>
+                  <c:v>74.369399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>115.58999999999999</c:v>
+                  <c:v>95.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>266.38999999999993</c:v>
+                  <c:v>266.48600000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2299999999999995</c:v>
+                  <c:v>12.145399999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.99</c:v>
+                  <c:v>55.702199999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.39</c:v>
+                  <c:v>103.14800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>196.79</c:v>
+                  <c:v>215.92900000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -773,7 +776,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -782,22 +785,22 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130</c:v>
+                  <c:v>130.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>261</c:v>
+                  <c:v>260.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>107</c:v>
+                  <c:v>106.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>196</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,34 +1227,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>65.451024832908033</c:v>
+                  <c:v>57.882197000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.299001068262719</c:v>
+                  <c:v>40.245431000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.07096542129476</c:v>
+                  <c:v>13.113032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.975012950585381</c:v>
+                  <c:v>49.108964</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105.35507236219865</c:v>
+                  <c:v>92.072129000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>212.94322683239315</c:v>
+                  <c:v>193.21125799999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2093582919011672</c:v>
+                  <c:v>7.5890282000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.299001068262719</c:v>
+                  <c:v>40.245431000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.803048597553328</c:v>
+                  <c:v>75.157763000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167.48715553845722</c:v>
+                  <c:v>148.42795999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,7 +1269,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -1275,22 +1278,22 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130</c:v>
+                  <c:v>130.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>261</c:v>
+                  <c:v>260.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>107</c:v>
+                  <c:v>106.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>196</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1712,37 +1715,37 @@
             <c:numRef>
               <c:f>'Table 4.2'!$D$4:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>230</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1757,7 +1760,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -1766,22 +1769,22 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130</c:v>
+                  <c:v>130.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>261</c:v>
+                  <c:v>260.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>107</c:v>
+                  <c:v>106.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>196</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,37 +1864,37 @@
             <c:numRef>
               <c:f>'Table 4.2'!$D$4:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>230</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,34 +1906,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>69.19</c:v>
+                  <c:v>44.813000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.99</c:v>
+                  <c:v>31.590400000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.19</c:v>
+                  <c:v>23.034599999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.589999999999996</c:v>
+                  <c:v>74.369399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>115.58999999999999</c:v>
+                  <c:v>95.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>266.38999999999993</c:v>
+                  <c:v>266.48600000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2299999999999995</c:v>
+                  <c:v>12.145399999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.99</c:v>
+                  <c:v>55.702199999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.39</c:v>
+                  <c:v>103.14800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>196.79</c:v>
+                  <c:v>215.92900000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2004,6 +2007,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2033,7 +2037,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2121,6 +2125,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2246,7 +2251,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2404,7 +2409,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -2413,22 +2418,22 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130</c:v>
+                  <c:v>130.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>261</c:v>
+                  <c:v>260.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>107</c:v>
+                  <c:v>106.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>196</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2498,34 +2503,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>65.451024832908033</c:v>
+                  <c:v>57.882197000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.299001068262719</c:v>
+                  <c:v>40.245431000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.07096542129476</c:v>
+                  <c:v>13.113032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.975012950585381</c:v>
+                  <c:v>49.108964</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105.35507236219865</c:v>
+                  <c:v>92.072129000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>212.94322683239315</c:v>
+                  <c:v>193.21125799999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2093582919011672</c:v>
+                  <c:v>7.5890282000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.299001068262719</c:v>
+                  <c:v>40.245431000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.803048597553328</c:v>
+                  <c:v>75.157763000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167.48715553845722</c:v>
+                  <c:v>148.42795999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2638,6 +2643,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2752,6 +2758,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5507,15 +5514,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
@@ -5552,15 +5559,17 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="15">
+        <v>45</v>
+      </c>
       <c r="E3" s="7">
         <v>39</v>
       </c>
       <c r="F3" s="6">
-        <v>41</v>
+        <v>41.7</v>
       </c>
       <c r="G3" s="5">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H12" si="0">MEDIAN(E3:G3)</f>
@@ -5574,19 +5583,21 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="15">
+        <v>28</v>
+      </c>
       <c r="E4" s="7">
         <v>27</v>
       </c>
       <c r="F4" s="6">
-        <v>25</v>
+        <v>27.9</v>
       </c>
       <c r="G4" s="5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75">
@@ -5596,15 +5607,17 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="15">
+        <v>12</v>
+      </c>
       <c r="E5" s="7">
         <v>16</v>
       </c>
       <c r="F5" s="6">
+        <v>15.11</v>
+      </c>
+      <c r="G5" s="5">
         <v>16</v>
-      </c>
-      <c r="G5" s="5">
-        <v>10</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
@@ -5618,15 +5631,17 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="15">
+        <v>125</v>
+      </c>
       <c r="E6" s="7">
         <v>83</v>
       </c>
       <c r="F6" s="6">
+        <v>82.7</v>
+      </c>
+      <c r="G6" s="5">
         <v>84</v>
-      </c>
-      <c r="G6" s="5">
-        <v>20</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
@@ -5640,19 +5655,21 @@
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="15">
+        <v>175</v>
+      </c>
       <c r="E7" s="7">
         <v>130</v>
       </c>
       <c r="F7" s="6">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G7" s="5">
-        <v>127</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>130.80000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75">
@@ -5662,19 +5679,21 @@
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15">
+        <v>500</v>
+      </c>
       <c r="E8" s="7">
         <v>255</v>
       </c>
       <c r="F8" s="6">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G8" s="5">
-        <v>261</v>
+        <v>260.39999999999998</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>260.39999999999998</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75">
@@ -5684,15 +5703,17 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="15">
+        <v>6</v>
+      </c>
       <c r="E9" s="7">
         <v>8</v>
       </c>
       <c r="F9" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="5">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
@@ -5706,19 +5727,21 @@
       <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="15">
+        <v>35</v>
+      </c>
       <c r="E10" s="7">
         <v>43</v>
       </c>
       <c r="F10" s="6">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G10" s="5">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75">
@@ -5728,19 +5751,21 @@
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15">
+        <v>146</v>
+      </c>
       <c r="E11" s="7">
         <v>94</v>
       </c>
       <c r="F11" s="6">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="G11" s="5">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75">
@@ -5750,19 +5775,21 @@
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>255</v>
+      </c>
       <c r="E12" s="7">
         <v>186</v>
       </c>
       <c r="F12" s="6">
-        <v>196</v>
+        <v>197.7</v>
       </c>
       <c r="G12" s="5">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75">
@@ -5772,7 +5799,9 @@
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>131</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:8" ht="15.75">
@@ -5788,8 +5817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C18"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -5798,19 +5827,19 @@
     <col min="2" max="2" width="8.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="56.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="3" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="2"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19" style="2" customWidth="1"/>
     <col min="16" max="16" width="2.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="17" max="17" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.42578125" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -5863,12 +5892,12 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11">
-        <v>60</v>
+      <c r="D4" s="15">
+        <v>45</v>
       </c>
       <c r="E4" s="17">
         <f>$L$4+$N$4*D4</f>
-        <v>69.19</v>
+        <v>44.813000000000002</v>
       </c>
       <c r="F4" s="17">
         <f>'Table 4.1'!H3</f>
@@ -5876,11 +5905,11 @@
       </c>
       <c r="G4" s="17">
         <f>F4-E4</f>
-        <v>-30.189999999999998</v>
+        <v>-5.8130000000000024</v>
       </c>
       <c r="H4" s="19">
         <f>G4^2</f>
-        <v>911.4360999999999</v>
+        <v>33.790969000000025</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -5889,16 +5918,16 @@
         <v>27</v>
       </c>
       <c r="L4" s="16">
-        <v>-0.41</v>
+        <v>9.8119999999999994</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="16">
-        <v>1.1599999999999999</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -5908,24 +5937,24 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11">
-        <v>40</v>
+      <c r="D5" s="15">
+        <v>28</v>
       </c>
       <c r="E5" s="17">
         <f t="shared" ref="E5:E13" si="0">$L$4+$N$4*D5</f>
-        <v>45.99</v>
+        <v>31.590400000000002</v>
       </c>
       <c r="F5" s="17">
         <f>'Table 4.1'!H4</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" ref="G5:G13" si="1">F5-E5</f>
-        <v>-20.990000000000002</v>
+        <v>-4.5904000000000025</v>
       </c>
       <c r="H5" s="19">
         <f t="shared" ref="H5:H13" si="2">G5^2</f>
-        <v>440.58010000000007</v>
+        <v>21.071772160000023</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -5935,12 +5964,12 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11">
-        <v>10</v>
+      <c r="D6" s="15">
+        <v>17</v>
       </c>
       <c r="E6" s="17">
         <f t="shared" si="0"/>
-        <v>11.19</v>
+        <v>23.034599999999998</v>
       </c>
       <c r="F6" s="17">
         <f>'Table 4.1'!H5</f>
@@ -5948,11 +5977,11 @@
       </c>
       <c r="G6" s="17">
         <f t="shared" si="1"/>
-        <v>4.8100000000000005</v>
+        <v>-7.0345999999999975</v>
       </c>
       <c r="H6" s="19">
         <f t="shared" si="2"/>
-        <v>23.136100000000006</v>
+        <v>49.485597159999962</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -5962,12 +5991,12 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11">
-        <v>50</v>
+      <c r="D7" s="15">
+        <v>83</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" si="0"/>
-        <v>57.589999999999996</v>
+        <v>74.369399999999999</v>
       </c>
       <c r="F7" s="17">
         <f>'Table 4.1'!H6</f>
@@ -5975,11 +6004,11 @@
       </c>
       <c r="G7" s="17">
         <f t="shared" si="1"/>
-        <v>25.410000000000004</v>
+        <v>8.6306000000000012</v>
       </c>
       <c r="H7" s="19">
         <f t="shared" si="2"/>
-        <v>645.66810000000021</v>
+        <v>74.487256360000018</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -5989,24 +6018,24 @@
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="11">
-        <v>100</v>
+      <c r="D8" s="15">
+        <v>110</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" si="0"/>
-        <v>115.58999999999999</v>
+        <v>95.37</v>
       </c>
       <c r="F8" s="17">
         <f>'Table 4.1'!H7</f>
-        <v>130</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="1"/>
-        <v>14.410000000000011</v>
+        <v>35.430000000000007</v>
       </c>
       <c r="H8" s="19">
         <f t="shared" si="2"/>
-        <v>207.64810000000031</v>
+        <v>1255.2849000000006</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -6016,24 +6045,24 @@
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="11">
-        <v>230</v>
+      <c r="D9" s="15">
+        <v>330</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="0"/>
-        <v>266.38999999999993</v>
+        <v>266.48600000000005</v>
       </c>
       <c r="F9" s="17">
         <f>'Table 4.1'!H8</f>
-        <v>261</v>
+        <v>260.39999999999998</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="1"/>
-        <v>-5.3899999999999295</v>
+        <v>-6.0860000000000696</v>
       </c>
       <c r="H9" s="19">
         <f t="shared" si="2"/>
-        <v>29.052099999999239</v>
+        <v>37.039396000000849</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -6043,12 +6072,12 @@
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="11">
-        <v>4</v>
+      <c r="D10" s="15">
+        <v>3</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" si="0"/>
-        <v>4.2299999999999995</v>
+        <v>12.145399999999999</v>
       </c>
       <c r="F10" s="17">
         <f>'Table 4.1'!H9</f>
@@ -6056,11 +6085,11 @@
       </c>
       <c r="G10" s="17">
         <f t="shared" si="1"/>
-        <v>3.7700000000000005</v>
+        <v>-4.1453999999999986</v>
       </c>
       <c r="H10" s="19">
         <f t="shared" si="2"/>
-        <v>14.212900000000003</v>
+        <v>17.184341159999988</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -6070,24 +6099,24 @@
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="11">
-        <v>40</v>
+      <c r="D11" s="15">
+        <v>59</v>
       </c>
       <c r="E11" s="17">
         <f t="shared" si="0"/>
-        <v>45.99</v>
+        <v>55.702199999999998</v>
       </c>
       <c r="F11" s="17">
         <f>'Table 4.1'!H10</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G11" s="17">
         <f t="shared" si="1"/>
-        <v>-3.990000000000002</v>
+        <v>-9.7021999999999977</v>
       </c>
       <c r="H11" s="19">
         <f t="shared" si="2"/>
-        <v>15.920100000000016</v>
+        <v>94.132684839999953</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -6097,24 +6126,24 @@
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="11">
-        <v>80</v>
+      <c r="D12" s="15">
+        <v>120</v>
       </c>
       <c r="E12" s="17">
         <f t="shared" si="0"/>
-        <v>92.39</v>
+        <v>103.14800000000001</v>
       </c>
       <c r="F12" s="17">
         <f>'Table 4.1'!H11</f>
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="G12" s="17">
         <f t="shared" si="1"/>
-        <v>14.61</v>
+        <v>3.5519999999999925</v>
       </c>
       <c r="H12" s="19">
         <f t="shared" si="2"/>
-        <v>213.45209999999997</v>
+        <v>12.616703999999947</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -6124,24 +6153,24 @@
       <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="11">
-        <v>170</v>
+      <c r="D13" s="15">
+        <v>265</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" si="0"/>
-        <v>196.79</v>
+        <v>215.92900000000003</v>
       </c>
       <c r="F13" s="17">
         <f>'Table 4.1'!H12</f>
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G13" s="17">
         <f t="shared" si="1"/>
-        <v>-0.78999999999999204</v>
+        <v>-29.92900000000003</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="2"/>
-        <v>0.62409999999998744</v>
+        <v>895.74504100000183</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -6151,9 +6180,7 @@
       <c r="C14" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="11">
-        <v>130</v>
-      </c>
+      <c r="D14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:15">
@@ -6162,7 +6189,7 @@
       </c>
       <c r="H15" s="23">
         <f>SUM(H4:H13)</f>
-        <v>2501.7297999999996</v>
+        <v>2490.838661680003</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -6175,7 +6202,7 @@
       </c>
       <c r="H16" s="23">
         <f>SQRT(H15/(10-2))</f>
-        <v>17.683784238674708</v>
+        <v>17.645249579136035</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -6186,7 +6213,7 @@
       </c>
       <c r="G17" s="28" t="str">
         <f>K4&amp;ROUND(L4,2)&amp;M4&amp;ROUND(N4,2)&amp;O4</f>
-        <v>Predict_Distance =-0.41+1.16*Gussed_Distance</v>
+        <v>Predict_Distance =9.81+0.78*Gussed_Distance</v>
       </c>
       <c r="H17" s="28"/>
       <c r="I17" s="14"/>
@@ -6200,11 +6227,11 @@
       </c>
       <c r="G18" s="23">
         <f>-2*H16</f>
-        <v>-35.367568477349415</v>
+        <v>-35.29049915827207</v>
       </c>
       <c r="H18" s="23">
         <f>2*H16</f>
-        <v>35.367568477349415</v>
+        <v>35.29049915827207</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -6266,7 +6293,7 @@
       </c>
       <c r="E21" s="17">
         <f>$L$21+$N$21*D21+$Q$21*D21^2</f>
-        <v>65.451024832908033</v>
+        <v>57.882197000000005</v>
       </c>
       <c r="F21" s="17">
         <f>'Table 4.1'!H3</f>
@@ -6274,11 +6301,11 @@
       </c>
       <c r="G21" s="17">
         <f>F21-E21</f>
-        <v>-26.451024832908033</v>
+        <v>-18.882197000000005</v>
       </c>
       <c r="H21" s="19">
         <f>G21^2</f>
-        <v>699.65671471111739</v>
+        <v>356.53736354680916</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -6287,13 +6314,13 @@
         <v>27</v>
       </c>
       <c r="L21" s="16">
-        <v>-0.40504646102789421</v>
+        <v>3.8882989999999999</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N21" s="16">
-        <v>1.1576011882322654</v>
+        <v>0.92698829999999999</v>
       </c>
       <c r="O21" s="13" t="s">
         <v>19</v>
@@ -6302,7 +6329,7 @@
         <v>18</v>
       </c>
       <c r="Q21" s="24">
-        <v>-1E-3</v>
+        <v>-4.5150000000000002E-4</v>
       </c>
       <c r="R21" s="13" t="s">
         <v>28</v>
@@ -6320,19 +6347,19 @@
       </c>
       <c r="E22" s="17">
         <f t="shared" ref="E22:E30" si="3">$L$21+$N$21*D22+$Q$21*D22^2</f>
-        <v>44.299001068262719</v>
+        <v>40.245431000000004</v>
       </c>
       <c r="F22" s="17">
         <f>'Table 4.1'!H4</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G22" s="17">
         <f t="shared" ref="G22:G30" si="4">F22-E22</f>
-        <v>-19.299001068262719</v>
+        <v>-13.245431000000004</v>
       </c>
       <c r="H22" s="19">
         <f t="shared" ref="H22:H30" si="5">G22^2</f>
-        <v>372.45144223280556</v>
+        <v>175.44144237576108</v>
       </c>
     </row>
     <row r="23" spans="2:18">
@@ -6347,7 +6374,7 @@
       </c>
       <c r="E23" s="17">
         <f t="shared" si="3"/>
-        <v>11.07096542129476</v>
+        <v>13.113032</v>
       </c>
       <c r="F23" s="17">
         <f>'Table 4.1'!H5</f>
@@ -6355,11 +6382,11 @@
       </c>
       <c r="G23" s="17">
         <f t="shared" si="4"/>
-        <v>4.9290345787052399</v>
+        <v>2.8869679999999995</v>
       </c>
       <c r="H23" s="19">
         <f t="shared" si="5"/>
-        <v>24.295381878071943</v>
+        <v>8.3345842330239979</v>
       </c>
     </row>
     <row r="24" spans="2:18">
@@ -6374,7 +6401,7 @@
       </c>
       <c r="E24" s="17">
         <f t="shared" si="3"/>
-        <v>54.975012950585381</v>
+        <v>49.108964</v>
       </c>
       <c r="F24" s="17">
         <f>'Table 4.1'!H6</f>
@@ -6382,11 +6409,11 @@
       </c>
       <c r="G24" s="17">
         <f t="shared" si="4"/>
-        <v>28.024987049414619</v>
+        <v>33.891036</v>
       </c>
       <c r="H24" s="19">
         <f t="shared" si="5"/>
-        <v>785.39989911985708</v>
+        <v>1148.6023211532961</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -6401,19 +6428,19 @@
       </c>
       <c r="E25" s="17">
         <f t="shared" si="3"/>
-        <v>105.35507236219865</v>
+        <v>92.072129000000004</v>
       </c>
       <c r="F25" s="17">
         <f>'Table 4.1'!H7</f>
-        <v>130</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="G25" s="17">
         <f t="shared" si="4"/>
-        <v>24.644927637801345</v>
+        <v>38.727871000000007</v>
       </c>
       <c r="H25" s="19">
         <f t="shared" si="5"/>
-        <v>607.37245827246454</v>
+        <v>1499.8479921926416</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -6428,19 +6455,19 @@
       </c>
       <c r="E26" s="17">
         <f t="shared" si="3"/>
-        <v>212.94322683239315</v>
+        <v>193.21125799999999</v>
       </c>
       <c r="F26" s="17">
         <f>'Table 4.1'!H8</f>
-        <v>261</v>
+        <v>260.39999999999998</v>
       </c>
       <c r="G26" s="17">
         <f t="shared" si="4"/>
-        <v>48.056773167606849</v>
+        <v>67.188741999999991</v>
       </c>
       <c r="H26" s="19">
         <f t="shared" si="5"/>
-        <v>2309.4534472828177</v>
+        <v>4514.3270515425629</v>
       </c>
     </row>
     <row r="27" spans="2:18">
@@ -6455,7 +6482,7 @@
       </c>
       <c r="E27" s="17">
         <f t="shared" si="3"/>
-        <v>4.2093582919011672</v>
+        <v>7.5890282000000004</v>
       </c>
       <c r="F27" s="17">
         <f>'Table 4.1'!H9</f>
@@ -6463,11 +6490,11 @@
       </c>
       <c r="G27" s="17">
         <f t="shared" si="4"/>
-        <v>3.7906417080988328</v>
+        <v>0.41097179999999955</v>
       </c>
       <c r="H27" s="19">
         <f t="shared" si="5"/>
-        <v>14.368964559178437</v>
+        <v>0.16889782039523962</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -6482,19 +6509,19 @@
       </c>
       <c r="E28" s="17">
         <f t="shared" si="3"/>
-        <v>44.299001068262719</v>
+        <v>40.245431000000004</v>
       </c>
       <c r="F28" s="17">
         <f>'Table 4.1'!H10</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G28" s="17">
         <f t="shared" si="4"/>
-        <v>-2.2990010682627187</v>
+        <v>5.7545689999999965</v>
       </c>
       <c r="H28" s="19">
         <f t="shared" si="5"/>
-        <v>5.2854059118731218</v>
+        <v>33.115064375760959</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -6509,19 +6536,19 @@
       </c>
       <c r="E29" s="17">
         <f t="shared" si="3"/>
-        <v>85.803048597553328</v>
+        <v>75.157763000000003</v>
       </c>
       <c r="F29" s="17">
         <f>'Table 4.1'!H11</f>
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="G29" s="17">
         <f t="shared" si="4"/>
-        <v>21.196951402446672</v>
+        <v>31.542237</v>
       </c>
       <c r="H29" s="19">
         <f t="shared" si="5"/>
-        <v>449.31074875768593</v>
+        <v>994.91271496416903</v>
       </c>
     </row>
     <row r="30" spans="2:18">
@@ -6536,19 +6563,19 @@
       </c>
       <c r="E30" s="17">
         <f t="shared" si="3"/>
-        <v>167.48715553845722</v>
+        <v>148.42795999999998</v>
       </c>
       <c r="F30" s="17">
         <f>'Table 4.1'!H12</f>
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G30" s="17">
         <f t="shared" si="4"/>
-        <v>28.512844461542784</v>
+        <v>37.572040000000015</v>
       </c>
       <c r="H30" s="19">
         <f t="shared" si="5"/>
-        <v>812.982299288131</v>
+        <v>1411.6581897616011</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -6569,7 +6596,7 @@
       </c>
       <c r="H32" s="23">
         <f>SUM(H21:H30)</f>
-        <v>6080.5767620140032</v>
+        <v>10142.945621966022</v>
       </c>
     </row>
     <row r="33" spans="2:10">
@@ -6582,7 +6609,7 @@
       </c>
       <c r="H33" s="23">
         <f>SQRT(H32/(10-3))</f>
-        <v>29.472933738344704</v>
+        <v>38.065630583367877</v>
       </c>
     </row>
     <row r="34" spans="2:10">
@@ -6593,7 +6620,7 @@
       </c>
       <c r="G34" s="28" t="str">
         <f>K21&amp;ROUND(L21,2)&amp;M21&amp;ROUND(N21,2)&amp;O21&amp;P21&amp;ROUND(Q21,5)&amp;R21</f>
-        <v>Predict_Distance =-0.41+1.16*Gussed_Distance+-0.001*Gussed_Distance^2</v>
+        <v>Predict_Distance =3.89+0.93*Gussed_Distance+-0.00045*Gussed_Distance^2</v>
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="14"/>
@@ -6605,11 +6632,11 @@
       </c>
       <c r="G35" s="23">
         <f>-2*H33</f>
-        <v>-58.945867476689408</v>
+        <v>-76.131261166735754</v>
       </c>
       <c r="H35" s="23">
         <f>2*H33</f>
-        <v>58.945867476689408</v>
+        <v>76.131261166735754</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -6706,7 +6733,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Lab4/Lab 4 SAWA tables.xlsx
+++ b/Lab4/Lab 4 SAWA tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="8565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table 4.1" sheetId="2" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Leftmost urn.</t>
   </si>
@@ -372,6 +372,18 @@
   </si>
   <si>
     <t>*Gussed_Distance</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>graph looks better</t>
+  </si>
+  <si>
+    <t>Predict_dist = 20.37+0.53*Guessed_distance</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -734,34 +746,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>44.813000000000002</c:v>
+                  <c:v>44.0839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.590400000000002</c:v>
+                  <c:v>35.126600000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.034599999999998</c:v>
+                  <c:v>26.696200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.369399999999999</c:v>
+                  <c:v>86.235900000000015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.37</c:v>
+                  <c:v>112.58090000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>266.48600000000005</c:v>
+                  <c:v>283.82340000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.145399999999999</c:v>
+                  <c:v>23.534800000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.702199999999998</c:v>
+                  <c:v>38.814900000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103.14800000000001</c:v>
+                  <c:v>97.30080000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>215.92900000000003</c:v>
+                  <c:v>154.7329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -904,6 +916,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1035,6 +1048,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1227,34 +1241,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>57.882197000000005</c:v>
+                  <c:v>40.866040900000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.245431000000004</c:v>
+                  <c:v>27.734747899999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.113032</c:v>
+                  <c:v>15.056179900000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.108964</c:v>
+                  <c:v>97.961680900000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.072129000000004</c:v>
+                  <c:v>129.71070589999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>193.21125799999999</c:v>
+                  <c:v>262.2840559</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5890282000000004</c:v>
+                  <c:v>10.2217909</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.245431000000004</c:v>
+                  <c:v>33.184135900000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.157763000000003</c:v>
+                  <c:v>111.6650209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>148.42795999999998</c:v>
+                  <c:v>174.21194590000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,6 +1411,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1528,6 +1543,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1724,28 +1740,28 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>110</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>330</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>120</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>265</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,28 +1889,28 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>110</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>330</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>120</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>265</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1906,34 +1922,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>44.813000000000002</c:v>
+                  <c:v>44.0839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.590400000000002</c:v>
+                  <c:v>35.126600000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.034599999999998</c:v>
+                  <c:v>26.696200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.369399999999999</c:v>
+                  <c:v>86.235900000000015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.37</c:v>
+                  <c:v>112.58090000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>266.48600000000005</c:v>
+                  <c:v>283.82340000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.145399999999999</c:v>
+                  <c:v>23.534800000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.702199999999998</c:v>
+                  <c:v>38.814900000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103.14800000000001</c:v>
+                  <c:v>97.30080000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>215.92900000000003</c:v>
+                  <c:v>154.7329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2367,34 +2383,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>230</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2503,34 +2519,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>57.882197000000005</c:v>
+                  <c:v>40.866040900000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.245431000000004</c:v>
+                  <c:v>27.734747899999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.113032</c:v>
+                  <c:v>15.056179900000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.108964</c:v>
+                  <c:v>97.961680900000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.072129000000004</c:v>
+                  <c:v>129.71070589999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>193.21125799999999</c:v>
+                  <c:v>262.2840559</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5890282000000004</c:v>
+                  <c:v>10.2217909</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.245431000000004</c:v>
+                  <c:v>33.184135900000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.157763000000003</c:v>
+                  <c:v>111.6650209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>148.42795999999998</c:v>
+                  <c:v>174.21194590000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2542,34 +2558,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>230</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5514,8 +5530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G3"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5817,8 +5833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -5897,7 +5913,7 @@
       </c>
       <c r="E4" s="17">
         <f>$L$4+$N$4*D4</f>
-        <v>44.813000000000002</v>
+        <v>44.0839</v>
       </c>
       <c r="F4" s="17">
         <f>'Table 4.1'!H3</f>
@@ -5905,11 +5921,11 @@
       </c>
       <c r="G4" s="17">
         <f>F4-E4</f>
-        <v>-5.8130000000000024</v>
+        <v>-5.0838999999999999</v>
       </c>
       <c r="H4" s="19">
         <f>G4^2</f>
-        <v>33.790969000000025</v>
+        <v>25.846039209999997</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -5918,13 +5934,13 @@
         <v>27</v>
       </c>
       <c r="L4" s="16">
-        <v>9.8119999999999994</v>
+        <v>20.3734</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="16">
-        <v>0.77780000000000005</v>
+        <v>0.52690000000000003</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>45</v>
@@ -5942,7 +5958,7 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" ref="E5:E13" si="0">$L$4+$N$4*D5</f>
-        <v>31.590400000000002</v>
+        <v>35.126600000000003</v>
       </c>
       <c r="F5" s="17">
         <f>'Table 4.1'!H4</f>
@@ -5950,11 +5966,11 @@
       </c>
       <c r="G5" s="17">
         <f t="shared" ref="G5:G13" si="1">F5-E5</f>
-        <v>-4.5904000000000025</v>
+        <v>-8.1266000000000034</v>
       </c>
       <c r="H5" s="19">
         <f t="shared" ref="H5:H13" si="2">G5^2</f>
-        <v>21.071772160000023</v>
+        <v>66.041627560000052</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -5965,11 +5981,11 @@
         <v>8</v>
       </c>
       <c r="D6" s="15">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6" s="17">
         <f t="shared" si="0"/>
-        <v>23.034599999999998</v>
+        <v>26.696200000000001</v>
       </c>
       <c r="F6" s="17">
         <f>'Table 4.1'!H5</f>
@@ -5977,11 +5993,11 @@
       </c>
       <c r="G6" s="17">
         <f t="shared" si="1"/>
-        <v>-7.0345999999999975</v>
+        <v>-10.696200000000001</v>
       </c>
       <c r="H6" s="19">
         <f t="shared" si="2"/>
-        <v>49.485597159999962</v>
+        <v>114.40869444000002</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -5992,11 +6008,11 @@
         <v>7</v>
       </c>
       <c r="D7" s="15">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" si="0"/>
-        <v>74.369399999999999</v>
+        <v>86.235900000000015</v>
       </c>
       <c r="F7" s="17">
         <f>'Table 4.1'!H6</f>
@@ -6004,11 +6020,11 @@
       </c>
       <c r="G7" s="17">
         <f t="shared" si="1"/>
-        <v>8.6306000000000012</v>
+        <v>-3.2359000000000151</v>
       </c>
       <c r="H7" s="19">
         <f t="shared" si="2"/>
-        <v>74.487256360000018</v>
+        <v>10.471048810000097</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -6019,11 +6035,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="15">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" si="0"/>
-        <v>95.37</v>
+        <v>112.58090000000001</v>
       </c>
       <c r="F8" s="17">
         <f>'Table 4.1'!H7</f>
@@ -6031,11 +6047,11 @@
       </c>
       <c r="G8" s="17">
         <f t="shared" si="1"/>
-        <v>35.430000000000007</v>
+        <v>18.219099999999997</v>
       </c>
       <c r="H8" s="19">
         <f t="shared" si="2"/>
-        <v>1255.2849000000006</v>
+        <v>331.93560480999992</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -6046,11 +6062,11 @@
         <v>5</v>
       </c>
       <c r="D9" s="15">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="0"/>
-        <v>266.48600000000005</v>
+        <v>283.82340000000005</v>
       </c>
       <c r="F9" s="17">
         <f>'Table 4.1'!H8</f>
@@ -6058,11 +6074,11 @@
       </c>
       <c r="G9" s="17">
         <f t="shared" si="1"/>
-        <v>-6.0860000000000696</v>
+        <v>-23.423400000000072</v>
       </c>
       <c r="H9" s="19">
         <f t="shared" si="2"/>
-        <v>37.039396000000849</v>
+        <v>548.65566756000339</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -6073,11 +6089,11 @@
         <v>4</v>
       </c>
       <c r="D10" s="15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" si="0"/>
-        <v>12.145399999999999</v>
+        <v>23.534800000000001</v>
       </c>
       <c r="F10" s="17">
         <f>'Table 4.1'!H9</f>
@@ -6085,11 +6101,11 @@
       </c>
       <c r="G10" s="17">
         <f t="shared" si="1"/>
-        <v>-4.1453999999999986</v>
+        <v>-15.534800000000001</v>
       </c>
       <c r="H10" s="19">
         <f t="shared" si="2"/>
-        <v>17.184341159999988</v>
+        <v>241.33001104000002</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -6100,11 +6116,11 @@
         <v>3</v>
       </c>
       <c r="D11" s="15">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E11" s="17">
         <f t="shared" si="0"/>
-        <v>55.702199999999998</v>
+        <v>38.814900000000002</v>
       </c>
       <c r="F11" s="17">
         <f>'Table 4.1'!H10</f>
@@ -6112,11 +6128,11 @@
       </c>
       <c r="G11" s="17">
         <f t="shared" si="1"/>
-        <v>-9.7021999999999977</v>
+        <v>7.1850999999999985</v>
       </c>
       <c r="H11" s="19">
         <f t="shared" si="2"/>
-        <v>94.132684839999953</v>
+        <v>51.625662009999978</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -6127,11 +6143,11 @@
         <v>2</v>
       </c>
       <c r="D12" s="15">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="E12" s="17">
         <f t="shared" si="0"/>
-        <v>103.14800000000001</v>
+        <v>97.30080000000001</v>
       </c>
       <c r="F12" s="17">
         <f>'Table 4.1'!H11</f>
@@ -6139,11 +6155,11 @@
       </c>
       <c r="G12" s="17">
         <f t="shared" si="1"/>
-        <v>3.5519999999999925</v>
+        <v>9.3991999999999933</v>
       </c>
       <c r="H12" s="19">
         <f t="shared" si="2"/>
-        <v>12.616703999999947</v>
+        <v>88.344960639999869</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -6154,11 +6170,11 @@
         <v>1</v>
       </c>
       <c r="D13" s="15">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" si="0"/>
-        <v>215.92900000000003</v>
+        <v>154.7329</v>
       </c>
       <c r="F13" s="17">
         <f>'Table 4.1'!H12</f>
@@ -6166,11 +6182,11 @@
       </c>
       <c r="G13" s="17">
         <f t="shared" si="1"/>
-        <v>-29.92900000000003</v>
+        <v>31.267099999999999</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="2"/>
-        <v>895.74504100000183</v>
+        <v>977.63154240999995</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -6180,7 +6196,9 @@
       <c r="C14" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11">
+        <v>131</v>
+      </c>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:15">
@@ -6189,7 +6207,7 @@
       </c>
       <c r="H15" s="23">
         <f>SUM(H4:H13)</f>
-        <v>2490.838661680003</v>
+        <v>2456.2908584900033</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -6202,7 +6220,7 @@
       </c>
       <c r="H16" s="23">
         <f>SQRT(H15/(10-2))</f>
-        <v>17.645249579136035</v>
+        <v>17.522452947896603</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -6213,7 +6231,7 @@
       </c>
       <c r="G17" s="28" t="str">
         <f>K4&amp;ROUND(L4,2)&amp;M4&amp;ROUND(N4,2)&amp;O4</f>
-        <v>Predict_Distance =9.81+0.78*Gussed_Distance</v>
+        <v>Predict_Distance =20.37+0.53*Gussed_Distance</v>
       </c>
       <c r="H17" s="28"/>
       <c r="I17" s="14"/>
@@ -6227,11 +6245,11 @@
       </c>
       <c r="G18" s="23">
         <f>-2*H16</f>
-        <v>-35.29049915827207</v>
+        <v>-35.044905895793207</v>
       </c>
       <c r="H18" s="23">
         <f>2*H16</f>
-        <v>35.29049915827207</v>
+        <v>35.044905895793207</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -6289,11 +6307,11 @@
         <v>10</v>
       </c>
       <c r="D21" s="11">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E21" s="17">
         <f>$L$21+$N$21*D21+$Q$21*D21^2</f>
-        <v>57.882197000000005</v>
+        <v>40.866040900000002</v>
       </c>
       <c r="F21" s="17">
         <f>'Table 4.1'!H3</f>
@@ -6301,11 +6319,11 @@
       </c>
       <c r="G21" s="17">
         <f>F21-E21</f>
-        <v>-18.882197000000005</v>
+        <v>-1.8660409000000016</v>
       </c>
       <c r="H21" s="19">
         <f>G21^2</f>
-        <v>356.53736354680916</v>
+        <v>3.4821086404728159</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -6314,13 +6332,13 @@
         <v>27</v>
       </c>
       <c r="L21" s="16">
-        <v>3.8882989999999999</v>
+        <v>5.3438059000000004</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N21" s="16">
-        <v>0.92698829999999999</v>
+        <v>0.81663050000000004</v>
       </c>
       <c r="O21" s="13" t="s">
         <v>19</v>
@@ -6329,7 +6347,7 @@
         <v>18</v>
       </c>
       <c r="Q21" s="24">
-        <v>-4.5150000000000002E-4</v>
+        <v>-6.0550000000000003E-4</v>
       </c>
       <c r="R21" s="13" t="s">
         <v>28</v>
@@ -6343,11 +6361,11 @@
         <v>9</v>
       </c>
       <c r="D22" s="11">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E22" s="17">
         <f t="shared" ref="E22:E30" si="3">$L$21+$N$21*D22+$Q$21*D22^2</f>
-        <v>40.245431000000004</v>
+        <v>27.734747899999999</v>
       </c>
       <c r="F22" s="17">
         <f>'Table 4.1'!H4</f>
@@ -6355,11 +6373,11 @@
       </c>
       <c r="G22" s="17">
         <f t="shared" ref="G22:G30" si="4">F22-E22</f>
-        <v>-13.245431000000004</v>
+        <v>-0.73474789999999857</v>
       </c>
       <c r="H22" s="19">
         <f t="shared" ref="H22:H30" si="5">G22^2</f>
-        <v>175.44144237576108</v>
+        <v>0.53985447655440788</v>
       </c>
     </row>
     <row r="23" spans="2:18">
@@ -6370,11 +6388,11 @@
         <v>8</v>
       </c>
       <c r="D23" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23" s="17">
         <f t="shared" si="3"/>
-        <v>13.113032</v>
+        <v>15.056179900000002</v>
       </c>
       <c r="F23" s="17">
         <f>'Table 4.1'!H5</f>
@@ -6382,11 +6400,11 @@
       </c>
       <c r="G23" s="17">
         <f t="shared" si="4"/>
-        <v>2.8869679999999995</v>
+        <v>0.94382009999999816</v>
       </c>
       <c r="H23" s="19">
         <f t="shared" si="5"/>
-        <v>8.3345842330239979</v>
+        <v>0.8907963811640065</v>
       </c>
     </row>
     <row r="24" spans="2:18">
@@ -6397,11 +6415,11 @@
         <v>7</v>
       </c>
       <c r="D24" s="11">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="E24" s="17">
         <f t="shared" si="3"/>
-        <v>49.108964</v>
+        <v>97.961680900000005</v>
       </c>
       <c r="F24" s="17">
         <f>'Table 4.1'!H6</f>
@@ -6409,11 +6427,11 @@
       </c>
       <c r="G24" s="17">
         <f t="shared" si="4"/>
-        <v>33.891036</v>
+        <v>-14.961680900000005</v>
       </c>
       <c r="H24" s="19">
         <f t="shared" si="5"/>
-        <v>1148.6023211532961</v>
+        <v>223.85189535342494</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -6424,11 +6442,11 @@
         <v>6</v>
       </c>
       <c r="D25" s="11">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="E25" s="17">
         <f t="shared" si="3"/>
-        <v>92.072129000000004</v>
+        <v>129.71070589999999</v>
       </c>
       <c r="F25" s="17">
         <f>'Table 4.1'!H7</f>
@@ -6436,11 +6454,11 @@
       </c>
       <c r="G25" s="17">
         <f t="shared" si="4"/>
-        <v>38.727871000000007</v>
+        <v>1.0892941000000178</v>
       </c>
       <c r="H25" s="19">
         <f t="shared" si="5"/>
-        <v>1499.8479921926416</v>
+        <v>1.1865616362948488</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -6451,11 +6469,11 @@
         <v>5</v>
       </c>
       <c r="D26" s="11">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="E26" s="17">
         <f t="shared" si="3"/>
-        <v>193.21125799999999</v>
+        <v>262.2840559</v>
       </c>
       <c r="F26" s="17">
         <f>'Table 4.1'!H8</f>
@@ -6463,11 +6481,11 @@
       </c>
       <c r="G26" s="17">
         <f t="shared" si="4"/>
-        <v>67.188741999999991</v>
+        <v>-1.8840559000000212</v>
       </c>
       <c r="H26" s="19">
         <f t="shared" si="5"/>
-        <v>4514.3270515425629</v>
+        <v>3.5496666343248897</v>
       </c>
     </row>
     <row r="27" spans="2:18">
@@ -6478,11 +6496,11 @@
         <v>4</v>
       </c>
       <c r="D27" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E27" s="17">
         <f t="shared" si="3"/>
-        <v>7.5890282000000004</v>
+        <v>10.2217909</v>
       </c>
       <c r="F27" s="17">
         <f>'Table 4.1'!H9</f>
@@ -6490,11 +6508,11 @@
       </c>
       <c r="G27" s="17">
         <f t="shared" si="4"/>
-        <v>0.41097179999999955</v>
+        <v>-2.2217909000000002</v>
       </c>
       <c r="H27" s="19">
         <f t="shared" si="5"/>
-        <v>0.16889782039523962</v>
+        <v>4.9363548033228106</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -6505,11 +6523,11 @@
         <v>3</v>
       </c>
       <c r="D28" s="11">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E28" s="17">
         <f t="shared" si="3"/>
-        <v>40.245431000000004</v>
+        <v>33.184135900000001</v>
       </c>
       <c r="F28" s="17">
         <f>'Table 4.1'!H10</f>
@@ -6517,11 +6535,11 @@
       </c>
       <c r="G28" s="17">
         <f t="shared" si="4"/>
-        <v>5.7545689999999965</v>
+        <v>12.815864099999999</v>
       </c>
       <c r="H28" s="19">
         <f t="shared" si="5"/>
-        <v>33.115064375760959</v>
+        <v>164.24637262966877</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -6532,11 +6550,11 @@
         <v>2</v>
       </c>
       <c r="D29" s="11">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="E29" s="17">
         <f t="shared" si="3"/>
-        <v>75.157763000000003</v>
+        <v>111.6650209</v>
       </c>
       <c r="F29" s="17">
         <f>'Table 4.1'!H11</f>
@@ -6544,11 +6562,11 @@
       </c>
       <c r="G29" s="17">
         <f t="shared" si="4"/>
-        <v>31.542237</v>
+        <v>-4.965020899999999</v>
       </c>
       <c r="H29" s="19">
         <f t="shared" si="5"/>
-        <v>994.91271496416903</v>
+        <v>24.651432537436801</v>
       </c>
     </row>
     <row r="30" spans="2:18">
@@ -6559,11 +6577,11 @@
         <v>1</v>
       </c>
       <c r="D30" s="11">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="E30" s="17">
         <f t="shared" si="3"/>
-        <v>148.42795999999998</v>
+        <v>174.21194590000002</v>
       </c>
       <c r="F30" s="17">
         <f>'Table 4.1'!H12</f>
@@ -6571,11 +6589,11 @@
       </c>
       <c r="G30" s="17">
         <f t="shared" si="4"/>
-        <v>37.572040000000015</v>
+        <v>11.788054099999982</v>
       </c>
       <c r="H30" s="19">
         <f t="shared" si="5"/>
-        <v>1411.6581897616011</v>
+        <v>138.95821946452639</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -6586,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H31" s="12"/>
     </row>
@@ -6596,7 +6614,7 @@
       </c>
       <c r="H32" s="23">
         <f>SUM(H21:H30)</f>
-        <v>10142.945621966022</v>
+        <v>566.2932625571907</v>
       </c>
     </row>
     <row r="33" spans="2:10">
@@ -6609,7 +6627,7 @@
       </c>
       <c r="H33" s="23">
         <f>SQRT(H32/(10-3))</f>
-        <v>38.065630583367877</v>
+        <v>8.9943892237422158</v>
       </c>
     </row>
     <row r="34" spans="2:10">
@@ -6620,7 +6638,7 @@
       </c>
       <c r="G34" s="28" t="str">
         <f>K21&amp;ROUND(L21,2)&amp;M21&amp;ROUND(N21,2)&amp;O21&amp;P21&amp;ROUND(Q21,5)&amp;R21</f>
-        <v>Predict_Distance =3.89+0.93*Gussed_Distance+-0.00045*Gussed_Distance^2</v>
+        <v>Predict_Distance =5.34+0.82*Gussed_Distance+-0.00061*Gussed_Distance^2</v>
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="14"/>
@@ -6632,11 +6650,11 @@
       </c>
       <c r="G35" s="23">
         <f>-2*H33</f>
-        <v>-76.131261166735754</v>
+        <v>-17.988778447484432</v>
       </c>
       <c r="H35" s="23">
         <f>2*H33</f>
-        <v>76.131261166735754</v>
+        <v>17.988778447484432</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -6653,7 +6671,9 @@
       <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="3">
@@ -6662,7 +6682,9 @@
       <c r="C39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="3">
@@ -6671,7 +6693,9 @@
       <c r="C40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="3">
@@ -6680,14 +6704,19 @@
       <c r="C41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="11"/>
+      <c r="D41" s="11">
+        <v>131</v>
+      </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3">
+        <f>20.37+0.53*131</f>
+        <v>89.800000000000011</v>
+      </c>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="3">
@@ -6707,7 +6736,10 @@
       <c r="C44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3">
+        <f>ABS(D42-D43)</f>
+        <v>10.199999999999989</v>
+      </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="3">
@@ -6716,7 +6748,15 @@
       <c r="C45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="2">
+        <v>-35</v>
+      </c>
+      <c r="F45" s="2">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
